--- a/test_resource/codeextractor_T_T.xlsx
+++ b/test_resource/codeextractor_T_T.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
   <si>
     <t>Code</t>
   </si>
@@ -43,9 +43,6 @@
     <t>CerberusTest.java_testCerebruswithWrongArguments</t>
   </si>
   <si>
-    <t>HelloController.java_Test_AddMethod</t>
-  </si>
-  <si>
     <t>HelloController.java_index1</t>
   </si>
   <si>
@@ -53,6 +50,12 @@
   </si>
   <si>
     <t>HelloController.java_meth</t>
+  </si>
+  <si>
+    <t>TestHelloController.java_Test_AddMethod</t>
+  </si>
+  <si>
+    <t>TstHelloController.java_Test_AddMethod</t>
   </si>
   <si>
     <t>test.cs_Test_AddMethod</t>
@@ -198,22 +201,6 @@
         Cerberus.main(new String[] { dummyArgument });
         String expectedOutputString = new StringBuilder().append("Unmatched argument at index 0: 'dummy argument'").append(NEW_LINE).append(getCerberusCommandLineUsageString()).toString();
     }
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">public void Test_AddMethod() {  
-            BasicMaths bm = new BasicMaths();  
-            double res = bm.Add(1, 10);  
-            Assert.AreEqual(res, 5);  
-        } 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">public void Test_AddMethod() {  
-            BasicMaths bm = new BasicMaths();  
-            double res = bm.Add(10, 10);  
-            Assert.AreEqual(res, 2);  
-        } 
 </t>
   </si>
   <si>
@@ -322,6 +309,22 @@
         }
         return "\"Got your report :)\"";
     }
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public void Test_AddMethod() {  
+            BasicMaths bm = new BasicMaths();  
+            double res = bm.Add(10, 10);  
+            Assert.AreEqual(res, 2);  
+        } 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public void Test_AddMethod() {  
+            BasicMaths bm = new BasicMaths();  
+            double res = bm.Add(1, 10);  
+            Assert.AreEqual(res, 5);  
+        } 
 </t>
   </si>
   <si>
@@ -1674,7 +1677,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1682,7 +1685,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1690,7 +1693,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1698,7 +1701,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1706,7 +1709,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1714,7 +1717,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1722,7 +1725,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1730,52 +1733,52 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>56</v>
@@ -1783,258 +1786,258 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/test_resource/codeextractor_T_T.xlsx
+++ b/test_resource/codeextractor_T_T.xlsx
@@ -97,370 +97,370 @@
     <t>test_guardrails.py_test_validate_return</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_call_subprocess_error(self):_x000D_
-        """Function to test call_subprocess_error method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        try:_x000D_
-            guardails_obj.call_subprocess("lshrs")_x000D_
-        except KeyError:_x000D_
-            pass_x000D_
+    <t xml:space="preserve">    def test_call_subprocess_error(self):_x000D__x000D_
+        """Function to test call_subprocess_error method"""_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        try:_x000D__x000D_
+            guardails_obj.call_subprocess("lshrs")_x000D__x000D_
+        except KeyError:_x000D__x000D_
+            pass_x000D__x000D_
         self.assertNotEqual(guardails_obj.call_subprocess("lshrs"), 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_call_subprocess_noerror(self):_x000D_
-        """Function to test call_subprocess_noerror method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        ret_val = guardails_obj.call_subprocess("dir")_x000D_
+    <t xml:space="preserve">    def test_call_subprocess_noerror(self):_x000D__x000D_
+        """Function to test call_subprocess_noerror method"""_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        ret_val = guardails_obj.call_subprocess("dir")_x000D__x000D_
         self.assertEqual(ret_val, 0)_x000D_</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_check_pass_fail_success(self):_x000D_
-        """Function to test check_pass_fail_success method"""_x000D_
-        list_test = [[10, 100, 10, "Guardrail gating, passed mutation"],_x000D_
-                     [10, 100, 1, "Guardrail gating, failed mutation"],_x000D_
-                     [10, 0, 10, "Guardrail gating, failed: mutation test did not run"]]_x000D_
-        for i, _ in enumerate(list_test):_x000D_
-            self.assertTrue(list_test[i][3] in self.get_check_pass_fail_status(list_test[i][0],_x000D_
+    <t xml:space="preserve">    def test_check_pass_fail_success(self):_x000D__x000D_
+        """Function to test check_pass_fail_success method"""_x000D__x000D_
+        list_test = [[10, 100, 10, "Guardrail gating, passed mutation"],_x000D__x000D_
+                     [10, 100, 1, "Guardrail gating, failed mutation"],_x000D__x000D_
+                     [10, 0, 10, "Guardrail gating, failed: mutation test did not run"]]_x000D__x000D_
+        for i, _ in enumerate(list_test):_x000D__x000D_
+            self.assertTrue(list_test[i][3] in self.get_check_pass_fail_status(list_test[i][0],_x000D__x000D_
                                                                                list_test[i][1], list_test[i][2]))_x000D_</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_check_report_dir(self, mock_path_exists, mock_mkdir):_x000D_
-        """Function to test check_report_dir method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        mock_path_exists.return_value = True_x000D_
-        mock_mkdir.return_value = False_x000D_
-        guardails_obj.check_report_dir()_x000D_
+    <t xml:space="preserve">    def test_check_report_dir(self, mock_path_exists, mock_mkdir):_x000D__x000D_
+        """Function to test check_report_dir method"""_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        mock_path_exists.return_value = True_x000D__x000D_
+        mock_mkdir.return_value = False_x000D__x000D_
+        guardails_obj.check_report_dir()_x000D__x000D_
         self.assertTrue(mock_mkdir.called)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_file_exists_exit(self):  # pylint: disable=R0201_x000D_
-        """Function to test file_exists_exit method"""_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            Guardails.file_exists("abc")_x000D_
+    <t xml:space="preserve">    def test_file_exists_exit(self):  # pylint: disable=R0201_x000D__x000D_
+        """Function to test file_exists_exit method"""_x000D__x000D_
+        with patch('sys.exit') as exit_mock:_x000D__x000D_
+            Guardails.file_exists("abc")_x000D__x000D_
             assert exit_mock.called</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_get_all_func_cnn(self):_x000D_
-        """Function to test get_all_func_cnn method"""_x000D_
-        file_name = self.get_file_name("test_resource", "CC.xml")_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        guardails_obj.get_index_cnn = Mock()_x000D_
-        guardails_obj.get_index_cnn.return_value = int(2)_x000D_
-        expec_data = {_x000D_
-            'get_file_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
-            '\\functiondefextractor\\core_extractor.py:11': '3',_x000D_
-            'get_function_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
-            '\\functiondefextractor\\core_extractor.py:28': '7'}_x000D_
-        root = ETree.parse(file_name).getroot()_x000D_
-        for functions in root.iter('measure'):_x000D_
-            if functions.attrib['type'] == "Function":_x000D_
-                assert expec_data == guardails_obj.get_all_func_cnn(functions)_x000D_
-        file_name = self.get_file_name("test_resource", "CC_test_Func.xml")_x000D_
-        root = ETree.parse(file_name).getroot()_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            for functions in root.iter('measure'):_x000D_
-                if functions.attrib['type'] == "Function":_x000D_
-                    guardails_obj.get_all_func_cnn(functions)_x000D_
-            file_name = self.get_file_name("test_resource", "CC_test_func_empty.xml")_x000D_
-            root = ETree.parse(file_name).getroot()_x000D_
-            for functions in root.iter('measure'):_x000D_
-                if functions.attrib['type'] == "Function":_x000D_
-                    guardails_obj.get_all_func_cnn(functions)_x000D_
-            assert exit_mock.called_x000D_
-            line = self.get_log_data(2)_x000D_
-            self.assertTrue(_x000D_
-                "Guardrail unable to find the tags item/value/name in the report " in line)_x000D_
-            line = self.get_log_data(1)_x000D_
-            self.assertTrue(_x000D_
+    <t xml:space="preserve">    def test_get_all_func_cnn(self):_x000D__x000D_
+        """Function to test get_all_func_cnn method"""_x000D__x000D_
+        file_name = self.get_file_name("test_resource", "CC.xml")_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        guardails_obj.get_index_cnn = Mock()_x000D__x000D_
+        guardails_obj.get_index_cnn.return_value = int(2)_x000D__x000D_
+        expec_data = {_x000D__x000D_
+            'get_file_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D__x000D_
+            '\\functiondefextractor\\core_extractor.py:11': '3',_x000D__x000D_
+            'get_function_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D__x000D_
+            '\\functiondefextractor\\core_extractor.py:28': '7'}_x000D__x000D_
+        root = ETree.parse(file_name).getroot()_x000D__x000D_
+        for functions in root.iter('measure'):_x000D__x000D_
+            if functions.attrib['type'] == "Function":_x000D__x000D_
+                assert expec_data == guardails_obj.get_all_func_cnn(functions)_x000D__x000D_
+        file_name = self.get_file_name("test_resource", "CC_test_Func.xml")_x000D__x000D_
+        root = ETree.parse(file_name).getroot()_x000D__x000D_
+        with patch('sys.exit') as exit_mock:_x000D__x000D_
+            for functions in root.iter('measure'):_x000D__x000D_
+                if functions.attrib['type'] == "Function":_x000D__x000D_
+                    guardails_obj.get_all_func_cnn(functions)_x000D__x000D_
+            file_name = self.get_file_name("test_resource", "CC_test_func_empty.xml")_x000D__x000D_
+            root = ETree.parse(file_name).getroot()_x000D__x000D_
+            for functions in root.iter('measure'):_x000D__x000D_
+                if functions.attrib['type'] == "Function":_x000D__x000D_
+                    guardails_obj.get_all_func_cnn(functions)_x000D__x000D_
+            assert exit_mock.called_x000D__x000D_
+            line = self.get_log_data(2)_x000D__x000D_
+            self.assertTrue(_x000D__x000D_
+                "Guardrail unable to find the tags item/value/name in the report " in line)_x000D__x000D_
+            line = self.get_log_data(1)_x000D__x000D_
+            self.assertTrue(_x000D__x000D_
                 "Guardrail unable to find the tags item/value/name in the report file " in line)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_get_index_cnn(self):_x000D_
-        """Function to test get_index_cnn method"""_x000D_
-        file_name = self.get_file_name("test_resource", "CC.xml")_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        root = ETree.parse(file_name).getroot()_x000D_
-        for functions in root.iter('measure'):_x000D_
-            if functions.attrib['type'] == "Function":_x000D_
-                assert guardails_obj.get_index_cnn(functions) == 2_x000D_
-        file_name = self.get_file_name("test_resource", "CC_test_func_empty.xml")_x000D_
-        root = ETree.parse(file_name).getroot()_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            for functions in root.iter('measure'):_x000D_
-                if functions.attrib['type'] == "Function":_x000D_
-                    guardails_obj.get_index_cnn(functions)_x000D_
-            assert exit_mock.called_x000D_
-            line = self.get_log_data(1)_x000D_
+    <t xml:space="preserve">    def test_get_index_cnn(self):_x000D__x000D_
+        """Function to test get_index_cnn method"""_x000D__x000D_
+        file_name = self.get_file_name("test_resource", "CC.xml")_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        root = ETree.parse(file_name).getroot()_x000D__x000D_
+        for functions in root.iter('measure'):_x000D__x000D_
+            if functions.attrib['type'] == "Function":_x000D__x000D_
+                assert guardails_obj.get_index_cnn(functions) == 2_x000D__x000D_
+        file_name = self.get_file_name("test_resource", "CC_test_func_empty.xml")_x000D__x000D_
+        root = ETree.parse(file_name).getroot()_x000D__x000D_
+        with patch('sys.exit') as exit_mock:_x000D__x000D_
+            for functions in root.iter('measure'):_x000D__x000D_
+                if functions.attrib['type'] == "Function":_x000D__x000D_
+                    guardails_obj.get_index_cnn(functions)_x000D__x000D_
+            assert exit_mock.called_x000D__x000D_
+            line = self.get_log_data(1)_x000D__x000D_
             self.assertTrue("Guardrail unable to find the tag CCN in the report " in line)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_coverage(self):_x000D_
-        """Function to test guardrail_coverage method"""_x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_coverage")_x000D_
-        print(line_2)_x000D_
-        self.assertTrue("Guardrail , passed Coverage threshold" in line_1)_x000D_
-        val = r'mypython -m coverage report --fail-under=85'_x000D_
+    <t xml:space="preserve">    def test_guardrail_coverage(self):_x000D__x000D_
+        """Function to test guardrail_coverage method"""_x000D__x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_coverage")_x000D__x000D_
+        print(line_2)_x000D__x000D_
+        self.assertTrue("Guardrail , passed Coverage threshold" in line_1)_x000D__x000D_
+        val = r'mypython -m coverage report --fail-under=85'_x000D__x000D_
         self.assertTrue(str(val) in line_2)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_coverage_fail(self):_x000D_
-        """Function to test guardrail_coverage_fail method"""_x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_coverage")_x000D_
-        print(line_2)_x000D_
-        self.assertTrue("Guardrail , failed Coverage threshold" in line_1)_x000D_
-        val = r'mypython -m coverage report --fail-under=85'_x000D_
+    <t xml:space="preserve">    def test_guardrail_coverage_fail(self):_x000D__x000D_
+        """Function to test guardrail_coverage_fail method"""_x000D__x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_coverage")_x000D__x000D_
+        print(line_2)_x000D__x000D_
+        self.assertTrue("Guardrail , failed Coverage threshold" in line_1)_x000D__x000D_
+        val = r'mypython -m coverage report --fail-under=85'_x000D__x000D_
         self.assertTrue(str(val) in line_2)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_cyclomatic_complexity(self, mock_subproc_call):_x000D_
-        """Function to test guardrail_cyclomatic_complexity method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        guardails_obj.parse_cyclo_report_xml = Mock()_x000D_
-        guardails_obj.parse_cyclo_report_xml.return_value = {_x000D_
-            'get_file_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
-            '\\functiondefextractor\\core_extractor.py:11': '3',_x000D_
-            'get_function_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
-            '\\functiondefextractor\\core_extractor.py:28': '7'}_x000D_
-        mock_subproc_call.return_value = False_x000D_
-        guardails_obj.guardrail_cyclomatic_complexity()_x000D_
-        self.assertTrue(mock_subproc_call.called)_x000D_
-        line = self.get_log_data(1)_x000D_
-        self.assertTrue("Guardrail , passed Cyclomatic complexity" in line)_x000D_
-        mock_subproc_call.return_value = True_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            guardails_obj.guardrail_cyclomatic_complexity()_x000D_
-            line = self.get_log_data(2)_x000D_
-            self.assertTrue("Guardrail task, failed Cyclomating complexity generation" in line)_x000D_
+    <t xml:space="preserve">    def test_guardrail_cyclomatic_complexity(self, mock_subproc_call):_x000D__x000D_
+        """Function to test guardrail_cyclomatic_complexity method"""_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        guardails_obj.parse_cyclo_report_xml = Mock()_x000D__x000D_
+        guardails_obj.parse_cyclo_report_xml.return_value = {_x000D__x000D_
+            'get_file_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D__x000D_
+            '\\functiondefextractor\\core_extractor.py:11': '3',_x000D__x000D_
+            'get_function_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D__x000D_
+            '\\functiondefextractor\\core_extractor.py:28': '7'}_x000D__x000D_
+        mock_subproc_call.return_value = False_x000D__x000D_
+        guardails_obj.guardrail_cyclomatic_complexity()_x000D__x000D_
+        self.assertTrue(mock_subproc_call.called)_x000D__x000D_
+        line = self.get_log_data(1)_x000D__x000D_
+        self.assertTrue("Guardrail , passed Cyclomatic complexity" in line)_x000D__x000D_
+        mock_subproc_call.return_value = True_x000D__x000D_
+        with patch('sys.exit') as exit_mock:_x000D__x000D_
+            guardails_obj.guardrail_cyclomatic_complexity()_x000D__x000D_
+            line = self.get_log_data(2)_x000D__x000D_
+            self.assertTrue("Guardrail task, failed Cyclomating complexity generation" in line)_x000D__x000D_
             assert exit_mock_x000D_</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_deadcode(self):_x000D_
-        """Function to test guardrail_deadcode method"""_x000D_
-        import os_x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_deadcode")_x000D_
-        self.assertTrue("Guardrail , passed Dead code detection" in line_1)_x000D_
-        val = r'mypython -m vulture C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\functiondefextractor ' \_x000D_
-              r'C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\test  --exclude C:\Projects\PythonRepo' \_x000D_
-              r'\python_sample\FunctionDefExtractor\test --min-confidence 100 &gt;C:\Projects\PythonRepo' \_x000D_
-              r'\REPORT\deadcode.txt'_x000D_
+    <t xml:space="preserve">    def test_guardrail_deadcode(self):_x000D__x000D_
+        """Function to test guardrail_deadcode method"""_x000D__x000D_
+        import os_x000D__x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_deadcode")_x000D__x000D_
+        self.assertTrue("Guardrail , passed Dead code detection" in line_1)_x000D__x000D_
+        val = r'mypython -m vulture C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\functiondefextractor ' \_x000D__x000D_
+              r'C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\test  --exclude C:\Projects\PythonRepo' \_x000D__x000D_
+              r'\python_sample\FunctionDefExtractor\test --min-confidence 100 &gt;C:\Projects\PythonRepo' \_x000D__x000D_
+              r'\REPORT\deadcode.txt'_x000D__x000D_
         self.assertTrue(val.replace("\\", os.sep) in line_2.replace('\\', os.sep).replace("/", os.sep))</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_deadcode_fail(self):_x000D_
-        """Function to test guardrail_deadcode_fail method"""_x000D_
-        import os_x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_deadcode")_x000D_
-        self.assertTrue("Guardrail , failed Dead code detection" in line_1)_x000D_
-        val = r'mypython -m vulture C:\Projects\PythonRepo\python_sample\FunctionDefExtractor' \_x000D_
-              r'\functiondefextractor ' \_x000D_
-              r'C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\test  --exclude' \_x000D_
-              r' C:\Projects\PythonRepo' \_x000D_
-              r'\python_sample\FunctionDefExtractor\test --min-confidence 100 &gt;C:\Projects' \_x000D_
-              r'\PythonRepo\REPORT\deadcode.txt'_x000D_
+    <t xml:space="preserve">    def test_guardrail_deadcode_fail(self):_x000D__x000D_
+        """Function to test guardrail_deadcode_fail method"""_x000D__x000D_
+        import os_x000D__x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_deadcode")_x000D__x000D_
+        self.assertTrue("Guardrail , failed Dead code detection" in line_1)_x000D__x000D_
+        val = r'mypython -m vulture C:\Projects\PythonRepo\python_sample\FunctionDefExtractor' \_x000D__x000D_
+              r'\functiondefextractor ' \_x000D__x000D_
+              r'C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\test  --exclude' \_x000D__x000D_
+              r' C:\Projects\PythonRepo' \_x000D__x000D_
+              r'\python_sample\FunctionDefExtractor\test --min-confidence 100 &gt;C:\Projects' \_x000D__x000D_
+              r'\PythonRepo\REPORT\deadcode.txt'_x000D__x000D_
         self.assertTrue(val.replace('\\', os.sep) in line_2.replace('\\', os.sep).replace("/", os.sep))</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_jscpd(self):_x000D_
-        """Function to test guardrail_jscpd method"""_x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_jscpd")_x000D_
-        self.assertTrue("Guardrail task, passed Copy Paste Detection report generation" in line_1)_x000D_
-        val = r'command for sub process:jscpd --min-tokens 20  --ignore C:\Projects\PythonRepo\python_sample' \_x000D_
-              r'\FunctionDefExtractor\test  --max-lines 100000 --max-size 100mb --reporters "json,html"' \_x000D_
-              r' --mode "strict" --format "python, java" -o'_x000D_
+    <t xml:space="preserve">    def test_guardrail_jscpd(self):_x000D__x000D_
+        """Function to test guardrail_jscpd method"""_x000D__x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_jscpd")_x000D__x000D_
+        self.assertTrue("Guardrail task, passed Copy Paste Detection report generation" in line_1)_x000D__x000D_
+        val = r'command for sub process:jscpd --min-tokens 20  --ignore C:\Projects\PythonRepo\python_sample' \_x000D__x000D_
+              r'\FunctionDefExtractor\test  --max-lines 100000 --max-size 100mb --reporters "json,html"' \_x000D__x000D_
+              r' --mode "strict" --format "python, java" -o'_x000D__x000D_
         self.assertTrue(str(val) in line_2)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_jscpd_fail(self):_x000D_
-        """Function to test guardrail_jscpd_fail method"""_x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_jscpd")_x000D_
-        self.assertTrue("Guardrail task, failed Copy Paste Detection report generation" in line_1)_x000D_
-        val = r'command for sub process:jscpd --min-tokens 20  --ignore C:\Projects\PythonRepo\python_sample' \_x000D_
-              r'\FunctionDefExtractor\test  --max-lines 100000 --max-size 100mb --reporters "json,html" --mode ' \_x000D_
-              r'"strict" --format "python, java" -o'_x000D_
+    <t xml:space="preserve">    def test_guardrail_jscpd_fail(self):_x000D__x000D_
+        """Function to test guardrail_jscpd_fail method"""_x000D__x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_jscpd")_x000D__x000D_
+        self.assertTrue("Guardrail task, failed Copy Paste Detection report generation" in line_1)_x000D__x000D_
+        val = r'command for sub process:jscpd --min-tokens 20  --ignore C:\Projects\PythonRepo\python_sample' \_x000D__x000D_
+              r'\FunctionDefExtractor\test  --max-lines 100000 --max-size 100mb --reporters "json,html" --mode ' \_x000D__x000D_
+              r'"strict" --format "python, java" -o'_x000D__x000D_
         self.assertTrue(str(val) in line_2)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_lint(self, mock_subproc_call):_x000D_
-        """Function to test guardrail_lint method"""_x000D_
-        import os_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        global_obj = GuardrailGlobals()_x000D_
-        mock_subproc_call.return_value = False_x000D_
-        guardails_obj.lint_ignore = self.get_file_name("test_resource", "pylint_ignore.txt")_x000D_
-        guardails_obj.generate_files_lint = MagicMock(return_value=" ")_x000D_
-        global_obj.report_folder = os.getcwd()_x000D_
-        guardails_obj.guardrail_lint()_x000D_
-        self.assertTrue(mock_subproc_call.called)_x000D_
-        line = self.get_log_data(1)_x000D_
-        self.assertTrue("Guardrail , passed Linting." in str(line))_x000D_
-        mock_subproc_call.return_value = True_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            guardails_obj.guardrail_lint()_x000D_
-            line = self.get_log_data(1)_x000D_
-            self.assertTrue("Guardrail , failed Linting." in str(line))_x000D_
-            assert exit_mock_x000D_
+    <t xml:space="preserve">    def test_guardrail_lint(self, mock_subproc_call):_x000D__x000D_
+        """Function to test guardrail_lint method"""_x000D__x000D_
+        import os_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        global_obj = GuardrailGlobals()_x000D__x000D_
+        mock_subproc_call.return_value = False_x000D__x000D_
+        guardails_obj.lint_ignore = self.get_file_name("test_resource", "pylint_ignore.txt")_x000D__x000D_
+        guardails_obj.generate_files_lint = MagicMock(return_value=" ")_x000D__x000D_
+        global_obj.report_folder = os.getcwd()_x000D__x000D_
+        guardails_obj.guardrail_lint()_x000D__x000D_
+        self.assertTrue(mock_subproc_call.called)_x000D__x000D_
+        line = self.get_log_data(1)_x000D__x000D_
+        self.assertTrue("Guardrail , passed Linting." in str(line))_x000D__x000D_
+        mock_subproc_call.return_value = True_x000D__x000D_
+        with patch('sys.exit') as exit_mock:_x000D__x000D_
+            guardails_obj.guardrail_lint()_x000D__x000D_
+            line = self.get_log_data(1)_x000D__x000D_
+            self.assertTrue("Guardrail , failed Linting." in str(line))_x000D__x000D_
+            assert exit_mock_x000D__x000D_
         self.assertTrue(mock_subproc_call.called)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_mutation(self, mock_subproc_call):_x000D_
-        """Function to test guardrail_mutation method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        guardails_obj.parse_mutmut_report_xml = Mock()_x000D_
-        guardails_obj.parse_mutmut_report_xml.return_value = None_x000D_
-        mock_subproc_call.return_value = False_x000D_
-        guardails_obj.guardrail_mutation()_x000D_
-        self.assertTrue(mock_subproc_call.called)_x000D_
-        line = self.get_log_data(1)_x000D_
-        self.assertTrue("Guardrail task, passed Mutation testing report generation." in line)_x000D_
-        mock_subproc_call.return_value = True_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            guardails_obj.guardrail_mutation()_x000D_
-            line = self.get_log_data(1)_x000D_
-            self.assertTrue("Guardrail task, failed Mutation testing " in line)_x000D_
+    <t xml:space="preserve">    def test_guardrail_mutation(self, mock_subproc_call):_x000D__x000D_
+        """Function to test guardrail_mutation method"""_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        guardails_obj.parse_mutmut_report_xml = Mock()_x000D__x000D_
+        guardails_obj.parse_mutmut_report_xml.return_value = None_x000D__x000D_
+        mock_subproc_call.return_value = False_x000D__x000D_
+        guardails_obj.guardrail_mutation()_x000D__x000D_
+        self.assertTrue(mock_subproc_call.called)_x000D__x000D_
+        line = self.get_log_data(1)_x000D__x000D_
+        self.assertTrue("Guardrail task, passed Mutation testing report generation." in line)_x000D__x000D_
+        mock_subproc_call.return_value = True_x000D__x000D_
+        with patch('sys.exit') as exit_mock:_x000D__x000D_
+            guardails_obj.guardrail_mutation()_x000D__x000D_
+            line = self.get_log_data(1)_x000D__x000D_
+            self.assertTrue("Guardrail task, failed Mutation testing " in line)_x000D__x000D_
             assert exit_mock_x000D_</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_test(self):_x000D_
-        """Function to test guardrail_test method"""_x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_test")_x000D_
-        self.assertTrue("Guardrail task, passed Test execution and coverage generation" in line_1)_x000D_
-        val = r'mypython -m pytest C:\Projects\PythonRepo\python_sample\FunctionDefExtractor' \_x000D_
-              r' --cov-config=C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\.coveragerc ' \_x000D_
-              r'--cov-report "html" --cov=C:\Projects\PythonRepo\python_sample' \_x000D_
-              r'\FunctionDefExtractor\functiondefextractor'_x000D_
+    <t xml:space="preserve">    def test_guardrail_test(self):_x000D__x000D_
+        """Function to test guardrail_test method"""_x000D__x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_test")_x000D__x000D_
+        self.assertTrue("Guardrail task, passed Test execution and coverage generation" in line_1)_x000D__x000D_
+        val = r'mypython -m pytest C:\Projects\PythonRepo\python_sample\FunctionDefExtractor' \_x000D__x000D_
+              r' --cov-config=C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\.coveragerc ' \_x000D__x000D_
+              r'--cov-report "html" --cov=C:\Projects\PythonRepo\python_sample' \_x000D__x000D_
+              r'\FunctionDefExtractor\functiondefextractor'_x000D__x000D_
         self.assertTrue(str(val) in line_2)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_test_fail(self):_x000D_
-        """Function to test guardrail_test_fail method"""_x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_test")_x000D_
-        self.assertTrue("Guardrail task, failed Test execution and coverage generation" in line_1)_x000D_
-        val = r'mypython -m pytest C:\Projects\PythonRepo\python_sample\FunctionDefExtractor ' \_x000D_
-              r'--cov-config=C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\.coveragerc ' \_x000D_
-              r'--cov-report "html" --cov=C:\Projects\PythonRepo\python_sample' \_x000D_
-              r'\FunctionDefExtractor\functiondefextractor'_x000D_
+    <t xml:space="preserve">    def test_guardrail_test_fail(self):_x000D__x000D_
+        """Function to test guardrail_test_fail method"""_x000D__x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_test")_x000D__x000D_
+        self.assertTrue("Guardrail task, failed Test execution and coverage generation" in line_1)_x000D__x000D_
+        val = r'mypython -m pytest C:\Projects\PythonRepo\python_sample\FunctionDefExtractor ' \_x000D__x000D_
+              r'--cov-config=C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\.coveragerc ' \_x000D__x000D_
+              r'--cov-report "html" --cov=C:\Projects\PythonRepo\python_sample' \_x000D__x000D_
+              r'\FunctionDefExtractor\functiondefextractor'_x000D__x000D_
         self.assertTrue(str(val) in line_2)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_list_to_str_folders(self):_x000D_
-        """Function to test list_to_str_folders method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        self.stub_globals(guardails_obj)_x000D_
+    <t xml:space="preserve">    def test_list_to_str_folders(self):_x000D__x000D_
+        """Function to test list_to_str_folders method"""_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        self.stub_globals(guardails_obj)_x000D__x000D_
         self.assertEqual(guardails_obj.list_to_str_folders(), "abc test")</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_mov_cov_report(self, mock_subproc_call, mock_shut_rmtr, mock_shut_mov):_x000D_
-        """Function to test mov_cov_report method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        process_sub_mock = mock.Mock()_x000D_
-        patcher_exist = mock.patch('os.path.exists')_x000D_
-        mock_thing = patcher_exist.start()_x000D_
-        mock_thing.return_value = True_x000D_
-        patcher_isdir = mock.patch('os.path.isdir')_x000D_
-        mock_thing_isdir = patcher_isdir.start()_x000D_
-        mock_thing_isdir.return_value = True_x000D_
-        mock_subproc_call.return_value = process_sub_mock_x000D_
-        mock_shut_rmtr.return_value = process_sub_mock_x000D_
-        mock_shut_mov.return_value = process_sub_mock_x000D_
-        guardails_obj.validate_return = self.stub_validate_return_x000D_
-        guardails_obj.mov_cov_report()_x000D_
+    <t xml:space="preserve">    def test_mov_cov_report(self, mock_subproc_call, mock_shut_rmtr, mock_shut_mov):_x000D__x000D_
+        """Function to test mov_cov_report method"""_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        process_sub_mock = mock.Mock()_x000D__x000D_
+        patcher_exist = mock.patch('os.path.exists')_x000D__x000D_
+        mock_thing = patcher_exist.start()_x000D__x000D_
+        mock_thing.return_value = True_x000D__x000D_
+        patcher_isdir = mock.patch('os.path.isdir')_x000D__x000D_
+        mock_thing_isdir = patcher_isdir.start()_x000D__x000D_
+        mock_thing_isdir.return_value = True_x000D__x000D_
+        mock_subproc_call.return_value = process_sub_mock_x000D__x000D_
+        mock_shut_rmtr.return_value = process_sub_mock_x000D__x000D_
+        mock_shut_mov.return_value = process_sub_mock_x000D__x000D_
+        guardails_obj.validate_return = self.stub_validate_return_x000D__x000D_
+        guardails_obj.mov_cov_report()_x000D__x000D_
         self.assertTrue(mock_subproc_call.called)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_orchestrate_guardrails(self):_x000D_
-        """Function to test orchestrate_guardrails method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        guardails_obj.check_report_dir = Mock()_x000D_
-        guardails_obj.mov_cov_report = Mock()_x000D_
-        guardails_obj.mov_cov_report.return_value = True_x000D_
-        self.assertTrue(guardails_obj.mov_cov_report.return_value)_x000D_
-        guardails_obj.guardrail_lint = Mock()_x000D_
-        guardails_obj.guardrail_lint.return_value = True_x000D_
-        self.assertTrue(guardails_obj.guardrail_lint.return_value)_x000D_
-        guardails_obj.guardrail_jscpd = Mock()_x000D_
-        guardails_obj.guardrail_jscpd.return_value = True_x000D_
-        self.assertTrue(guardails_obj.guardrail_jscpd.return_value)_x000D_
-        guardails_obj.guardrail_test = Mock()_x000D_
-        guardails_obj.guardrail_test.return_value = True_x000D_
-        self.assertTrue(guardails_obj.guardrail_test.return_value)_x000D_
-        guardails_obj.guardrail_coverage = Mock()_x000D_
-        guardails_obj.guardrail_coverage.return_value = True_x000D_
-        self.assertTrue(guardails_obj.guardrail_coverage.return_value)_x000D_
-        guardails_obj.guardrail_mutation = Mock()_x000D_
-        guardails_obj.guardrail_mutation.return_value = True_x000D_
-        self.assertTrue(guardails_obj.guardrail_mutation.return_value)_x000D_
-        guardails_obj.guardrail_deadcode = Mock()_x000D_
-        guardails_obj.guardrail_deadcode.return_value = True_x000D_
-        self.assertTrue(guardails_obj.guardrail_deadcode.return_value)_x000D_
-        guardails_obj.guardrail_cyclomatic_complexity = Mock()_x000D_
-        guardails_obj.guardrail_cyclomatic_complexity.return_value = True_x000D_
-        self.assertTrue(guardails_obj.guardrail_cyclomatic_complexity.return_value)_x000D_
+    <t xml:space="preserve">    def test_orchestrate_guardrails(self):_x000D__x000D_
+        """Function to test orchestrate_guardrails method"""_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        guardails_obj.check_report_dir = Mock()_x000D__x000D_
+        guardails_obj.mov_cov_report = Mock()_x000D__x000D_
+        guardails_obj.mov_cov_report.return_value = True_x000D__x000D_
+        self.assertTrue(guardails_obj.mov_cov_report.return_value)_x000D__x000D_
+        guardails_obj.guardrail_lint = Mock()_x000D__x000D_
+        guardails_obj.guardrail_lint.return_value = True_x000D__x000D_
+        self.assertTrue(guardails_obj.guardrail_lint.return_value)_x000D__x000D_
+        guardails_obj.guardrail_jscpd = Mock()_x000D__x000D_
+        guardails_obj.guardrail_jscpd.return_value = True_x000D__x000D_
+        self.assertTrue(guardails_obj.guardrail_jscpd.return_value)_x000D__x000D_
+        guardails_obj.guardrail_test = Mock()_x000D__x000D_
+        guardails_obj.guardrail_test.return_value = True_x000D__x000D_
+        self.assertTrue(guardails_obj.guardrail_test.return_value)_x000D__x000D_
+        guardails_obj.guardrail_coverage = Mock()_x000D__x000D_
+        guardails_obj.guardrail_coverage.return_value = True_x000D__x000D_
+        self.assertTrue(guardails_obj.guardrail_coverage.return_value)_x000D__x000D_
+        guardails_obj.guardrail_mutation = Mock()_x000D__x000D_
+        guardails_obj.guardrail_mutation.return_value = True_x000D__x000D_
+        self.assertTrue(guardails_obj.guardrail_mutation.return_value)_x000D__x000D_
+        guardails_obj.guardrail_deadcode = Mock()_x000D__x000D_
+        guardails_obj.guardrail_deadcode.return_value = True_x000D__x000D_
+        self.assertTrue(guardails_obj.guardrail_deadcode.return_value)_x000D__x000D_
+        guardails_obj.guardrail_cyclomatic_complexity = Mock()_x000D__x000D_
+        guardails_obj.guardrail_cyclomatic_complexity.return_value = True_x000D__x000D_
+        self.assertTrue(guardails_obj.guardrail_cyclomatic_complexity.return_value)_x000D__x000D_
         guardails_obj.orchestrate_guardrails()_x000D_</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_parse_cyclo_report_xml(self):_x000D_
-        """Function to test parse_cyclo_report_xml method"""_x000D_
-        file_name = self.get_file_name("test_resource", "CC.xml")_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        guardails_obj.get_all_func_cnn = Mock()_x000D_
-        guardails_obj.get_all_func_cnn.return_value = self.stub_get_all_func_cnn_x000D_
-        assert guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
-        file_name = self.get_file_name("test_resourc", "CC.xml")_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
-            line = self.get_log_data(1)_x000D_
-            self.assertTrue("cc.xml report file path" in line)_x000D_
-            file_name = self.get_file_name("test_resource", "CC_test.xml")_x000D_
-            guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
-            file_name = self.get_file_name("test_resource", "CC_test_None.xml")_x000D_
-            guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
-            line = self.get_log_data(1)_x000D_
-            self.assertTrue("tags required are not found in cc.xml report file path" in line)_x000D_
+    <t xml:space="preserve">    def test_parse_cyclo_report_xml(self):_x000D__x000D_
+        """Function to test parse_cyclo_report_xml method"""_x000D__x000D_
+        file_name = self.get_file_name("test_resource", "CC.xml")_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        guardails_obj.get_all_func_cnn = Mock()_x000D__x000D_
+        guardails_obj.get_all_func_cnn.return_value = self.stub_get_all_func_cnn_x000D__x000D_
+        assert guardails_obj.parse_cyclo_report_xml(file_name)_x000D__x000D_
+        file_name = self.get_file_name("test_resourc", "CC.xml")_x000D__x000D_
+        with patch('sys.exit') as exit_mock:_x000D__x000D_
+            guardails_obj.parse_cyclo_report_xml(file_name)_x000D__x000D_
+            line = self.get_log_data(1)_x000D__x000D_
+            self.assertTrue("cc.xml report file path" in line)_x000D__x000D_
+            file_name = self.get_file_name("test_resource", "CC_test.xml")_x000D__x000D_
+            guardails_obj.parse_cyclo_report_xml(file_name)_x000D__x000D_
+            file_name = self.get_file_name("test_resource", "CC_test_None.xml")_x000D__x000D_
+            guardails_obj.parse_cyclo_report_xml(file_name)_x000D__x000D_
+            line = self.get_log_data(1)_x000D__x000D_
+            self.assertTrue("tags required are not found in cc.xml report file path" in line)_x000D__x000D_
             assert exit_mock.called</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_parse_jscpd_report_json(self):_x000D_
-        """Function to test parse_jscpd_report_json method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        file_name = self.get_file_name("test_resource", "jscpd-report.json")_x000D_
-        guardails_obj.parse_jscpd_report_json(5, file_name)_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            guardails_obj.parse_jscpd_report_json(0, file_name)_x000D_
-            file_name = self.get_file_name("test_resource", "jscpd-report_test.json")_x000D_
-            guardails_obj.parse_jscpd_report_json(0, file_name)_x000D_
-            file_name = self.get_file_name("test_resource", "jscpd-report_test _error.json")_x000D_
-            guardails_obj.parse_jscpd_report_json(0, file_name)_x000D_
-            assert exit_mock.called_x000D_
-            line = self.get_log_data(3)_x000D_
-            self.assertTrue("Guardrail gating, failed jscpd." in line)_x000D_
-            line = self.get_log_data(4)_x000D_
-            self.assertTrue("Guardrail gating passed jscpd" in line)_x000D_
-            line = self.get_log_data(2)_x000D_
-            self.assertTrue("jscpd report not correctly generated" in line)_x000D_
-            line = self.get_log_data(1)_x000D_
+    <t xml:space="preserve">    def test_parse_jscpd_report_json(self):_x000D__x000D_
+        """Function to test parse_jscpd_report_json method"""_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        file_name = self.get_file_name("test_resource", "jscpd-report.json")_x000D__x000D_
+        guardails_obj.parse_jscpd_report_json(5, file_name)_x000D__x000D_
+        with patch('sys.exit') as exit_mock:_x000D__x000D_
+            guardails_obj.parse_jscpd_report_json(0, file_name)_x000D__x000D_
+            file_name = self.get_file_name("test_resource", "jscpd-report_test.json")_x000D__x000D_
+            guardails_obj.parse_jscpd_report_json(0, file_name)_x000D__x000D_
+            file_name = self.get_file_name("test_resource", "jscpd-report_test _error.json")_x000D__x000D_
+            guardails_obj.parse_jscpd_report_json(0, file_name)_x000D__x000D_
+            assert exit_mock.called_x000D__x000D_
+            line = self.get_log_data(3)_x000D__x000D_
+            self.assertTrue("Guardrail gating, failed jscpd." in line)_x000D__x000D_
+            line = self.get_log_data(4)_x000D__x000D_
+            self.assertTrue("Guardrail gating passed jscpd" in line)_x000D__x000D_
+            line = self.get_log_data(2)_x000D__x000D_
+            self.assertTrue("jscpd report not correctly generated" in line)_x000D__x000D_
+            line = self.get_log_data(1)_x000D__x000D_
             self.assertTrue("jscpd report not generated" in line)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_parse_mutmut_report_xml(self):_x000D_
-        """Function to test parse_mutmut_report_xml method"""_x000D_
-        file_name = self.get_file_name("test_resource", "mutmut.xml")_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        guardails_obj.parse_mutmut_report_xml(50, file_name)_x000D_
-        line = self.get_log_data(1)_x000D_
-        self.assertTrue("Guardrail gating, passed mutation" in str(line))_x000D_
-        file_name = self.get_file_name("test_resourc", "mutmut.xml")_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            guardails_obj.parse_mutmut_report_xml(50, file_name)_x000D_
-            assert exit_mock.called_x000D_
-            line = self.get_log_data(1)_x000D_
+    <t xml:space="preserve">    def test_parse_mutmut_report_xml(self):_x000D__x000D_
+        """Function to test parse_mutmut_report_xml method"""_x000D__x000D_
+        file_name = self.get_file_name("test_resource", "mutmut.xml")_x000D__x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
+        guardails_obj.parse_mutmut_report_xml(50, file_name)_x000D__x000D_
+        line = self.get_log_data(1)_x000D__x000D_
+        self.assertTrue("Guardrail gating, passed mutation" in str(line))_x000D__x000D_
+        file_name = self.get_file_name("test_resourc", "mutmut.xml")_x000D__x000D_
+        with patch('sys.exit') as exit_mock:_x000D__x000D_
+            guardails_obj.parse_mutmut_report_xml(50, file_name)_x000D__x000D_
+            assert exit_mock.called_x000D__x000D_
+            line = self.get_log_data(1)_x000D__x000D_
             self.assertTrue("mutmut.xml report file path cound not be found" in line)_x000D_</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_validate_return(self):_x000D_
-        """Function to test validate_return method"""_x000D_
-        list_test = [[1, "test", True, "Guardrail , failed test."], [0, "test", False, "Guardrail task, passed test."]]_x000D_
-        for i, _ in enumerate(list_test):_x000D_
-            assert self.get_validate_return(list_test[i][0], list_test[i][1], list_test[i][2]).strip() \_x000D_
+    <t xml:space="preserve">    def test_validate_return(self):_x000D__x000D_
+        """Function to test validate_return method"""_x000D__x000D_
+        list_test = [[1, "test", True, "Guardrail , failed test."], [0, "test", False, "Guardrail task, passed test."]]_x000D__x000D_
+        for i, _ in enumerate(list_test):_x000D__x000D_
+            assert self.get_validate_return(list_test[i][0], list_test[i][1], list_test[i][2]).strip() \_x000D__x000D_
                    == list_test[i][3]</t>
   </si>
 </sst>

--- a/test_resource/codeextractor_T_T.xlsx
+++ b/test_resource/codeextractor_T_T.xlsx
@@ -97,370 +97,370 @@
     <t>test_guardrails.py_test_validate_return</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_call_subprocess_error(self):_x000D__x000D_
-        """Function to test call_subprocess_error method"""_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        try:_x000D__x000D_
-            guardails_obj.call_subprocess("lshrs")_x000D__x000D_
-        except KeyError:_x000D__x000D_
-            pass_x000D__x000D_
+    <t xml:space="preserve">    def test_call_subprocess_error(self):_x000D_
+        """Function to test call_subprocess_error method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        try:_x000D_
+            guardails_obj.call_subprocess("lshrs")_x000D_
+        except KeyError:_x000D_
+            pass_x000D_
         self.assertNotEqual(guardails_obj.call_subprocess("lshrs"), 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_call_subprocess_noerror(self):_x000D__x000D_
-        """Function to test call_subprocess_noerror method"""_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        ret_val = guardails_obj.call_subprocess("dir")_x000D__x000D_
-        self.assertEqual(ret_val, 0)_x000D_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_check_pass_fail_success(self):_x000D__x000D_
-        """Function to test check_pass_fail_success method"""_x000D__x000D_
-        list_test = [[10, 100, 10, "Guardrail gating, passed mutation"],_x000D__x000D_
-                     [10, 100, 1, "Guardrail gating, failed mutation"],_x000D__x000D_
-                     [10, 0, 10, "Guardrail gating, failed: mutation test did not run"]]_x000D__x000D_
-        for i, _ in enumerate(list_test):_x000D__x000D_
-            self.assertTrue(list_test[i][3] in self.get_check_pass_fail_status(list_test[i][0],_x000D__x000D_
-                                                                               list_test[i][1], list_test[i][2]))_x000D_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_check_report_dir(self, mock_path_exists, mock_mkdir):_x000D__x000D_
-        """Function to test check_report_dir method"""_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        mock_path_exists.return_value = True_x000D__x000D_
-        mock_mkdir.return_value = False_x000D__x000D_
-        guardails_obj.check_report_dir()_x000D__x000D_
+    <t xml:space="preserve">    def test_call_subprocess_noerror(self):_x000D_
+        """Function to test call_subprocess_noerror method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        ret_val = guardails_obj.call_subprocess("dir")_x000D_
+        self.assertEqual(ret_val, 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_check_pass_fail_success(self):_x000D_
+        """Function to test check_pass_fail_success method"""_x000D_
+        list_test = [[10, 100, 10, "Guardrail gating, passed mutation"],_x000D_
+                     [10, 100, 1, "Guardrail gating, failed mutation"],_x000D_
+                     [10, 0, 10, "Guardrail gating, failed: mutation test did not run"]]_x000D_
+        for i, _ in enumerate(list_test):_x000D_
+            self.assertTrue(list_test[i][3] in self.get_check_pass_fail_status(list_test[i][0],_x000D_
+                                                                               list_test[i][1], list_test[i][2]))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_check_report_dir(self, mock_path_exists, mock_mkdir):_x000D_
+        """Function to test check_report_dir method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        mock_path_exists.return_value = True_x000D_
+        mock_mkdir.return_value = False_x000D_
+        guardails_obj.check_report_dir()_x000D_
         self.assertTrue(mock_mkdir.called)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_file_exists_exit(self):  # pylint: disable=R0201_x000D__x000D_
-        """Function to test file_exists_exit method"""_x000D__x000D_
-        with patch('sys.exit') as exit_mock:_x000D__x000D_
-            Guardails.file_exists("abc")_x000D__x000D_
+    <t xml:space="preserve">    def test_file_exists_exit(self):  # pylint: disable=R0201_x000D_
+        """Function to test file_exists_exit method"""_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            Guardails.file_exists("abc")_x000D_
             assert exit_mock.called</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_get_all_func_cnn(self):_x000D__x000D_
-        """Function to test get_all_func_cnn method"""_x000D__x000D_
-        file_name = self.get_file_name("test_resource", "CC.xml")_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        guardails_obj.get_index_cnn = Mock()_x000D__x000D_
-        guardails_obj.get_index_cnn.return_value = int(2)_x000D__x000D_
-        expec_data = {_x000D__x000D_
-            'get_file_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D__x000D_
-            '\\functiondefextractor\\core_extractor.py:11': '3',_x000D__x000D_
-            'get_function_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D__x000D_
-            '\\functiondefextractor\\core_extractor.py:28': '7'}_x000D__x000D_
-        root = ETree.parse(file_name).getroot()_x000D__x000D_
-        for functions in root.iter('measure'):_x000D__x000D_
-            if functions.attrib['type'] == "Function":_x000D__x000D_
-                assert expec_data == guardails_obj.get_all_func_cnn(functions)_x000D__x000D_
-        file_name = self.get_file_name("test_resource", "CC_test_Func.xml")_x000D__x000D_
-        root = ETree.parse(file_name).getroot()_x000D__x000D_
-        with patch('sys.exit') as exit_mock:_x000D__x000D_
-            for functions in root.iter('measure'):_x000D__x000D_
-                if functions.attrib['type'] == "Function":_x000D__x000D_
-                    guardails_obj.get_all_func_cnn(functions)_x000D__x000D_
-            file_name = self.get_file_name("test_resource", "CC_test_func_empty.xml")_x000D__x000D_
-            root = ETree.parse(file_name).getroot()_x000D__x000D_
-            for functions in root.iter('measure'):_x000D__x000D_
-                if functions.attrib['type'] == "Function":_x000D__x000D_
-                    guardails_obj.get_all_func_cnn(functions)_x000D__x000D_
-            assert exit_mock.called_x000D__x000D_
-            line = self.get_log_data(2)_x000D__x000D_
-            self.assertTrue(_x000D__x000D_
-                "Guardrail unable to find the tags item/value/name in the report " in line)_x000D__x000D_
-            line = self.get_log_data(1)_x000D__x000D_
-            self.assertTrue(_x000D__x000D_
+    <t xml:space="preserve">    def test_get_all_func_cnn(self):_x000D_
+        """Function to test get_all_func_cnn method"""_x000D_
+        file_name = self.get_file_name("test_resource", "CC.xml")_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        guardails_obj.get_index_cnn = Mock()_x000D_
+        guardails_obj.get_index_cnn.return_value = int(2)_x000D_
+        expec_data = {_x000D_
+            'get_file_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
+            '\\functiondefextractor\\core_extractor.py:11': '3',_x000D_
+            'get_function_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
+            '\\functiondefextractor\\core_extractor.py:28': '7'}_x000D_
+        root = ETree.parse(file_name).getroot()_x000D_
+        for functions in root.iter('measure'):_x000D_
+            if functions.attrib['type'] == "Function":_x000D_
+                assert expec_data == guardails_obj.get_all_func_cnn(functions)_x000D_
+        file_name = self.get_file_name("test_resource", "CC_test_Func.xml")_x000D_
+        root = ETree.parse(file_name).getroot()_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            for functions in root.iter('measure'):_x000D_
+                if functions.attrib['type'] == "Function":_x000D_
+                    guardails_obj.get_all_func_cnn(functions)_x000D_
+            file_name = self.get_file_name("test_resource", "CC_test_func_empty.xml")_x000D_
+            root = ETree.parse(file_name).getroot()_x000D_
+            for functions in root.iter('measure'):_x000D_
+                if functions.attrib['type'] == "Function":_x000D_
+                    guardails_obj.get_all_func_cnn(functions)_x000D_
+            assert exit_mock.called_x000D_
+            line = self.get_log_data(2)_x000D_
+            self.assertTrue(_x000D_
+                "Guardrail unable to find the tags item/value/name in the report " in line)_x000D_
+            line = self.get_log_data(1)_x000D_
+            self.assertTrue(_x000D_
                 "Guardrail unable to find the tags item/value/name in the report file " in line)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_get_index_cnn(self):_x000D__x000D_
-        """Function to test get_index_cnn method"""_x000D__x000D_
-        file_name = self.get_file_name("test_resource", "CC.xml")_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        root = ETree.parse(file_name).getroot()_x000D__x000D_
-        for functions in root.iter('measure'):_x000D__x000D_
-            if functions.attrib['type'] == "Function":_x000D__x000D_
-                assert guardails_obj.get_index_cnn(functions) == 2_x000D__x000D_
-        file_name = self.get_file_name("test_resource", "CC_test_func_empty.xml")_x000D__x000D_
-        root = ETree.parse(file_name).getroot()_x000D__x000D_
-        with patch('sys.exit') as exit_mock:_x000D__x000D_
-            for functions in root.iter('measure'):_x000D__x000D_
-                if functions.attrib['type'] == "Function":_x000D__x000D_
-                    guardails_obj.get_index_cnn(functions)_x000D__x000D_
-            assert exit_mock.called_x000D__x000D_
-            line = self.get_log_data(1)_x000D__x000D_
+    <t xml:space="preserve">    def test_get_index_cnn(self):_x000D_
+        """Function to test get_index_cnn method"""_x000D_
+        file_name = self.get_file_name("test_resource", "CC.xml")_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        root = ETree.parse(file_name).getroot()_x000D_
+        for functions in root.iter('measure'):_x000D_
+            if functions.attrib['type'] == "Function":_x000D_
+                assert guardails_obj.get_index_cnn(functions) == 2_x000D_
+        file_name = self.get_file_name("test_resource", "CC_test_func_empty.xml")_x000D_
+        root = ETree.parse(file_name).getroot()_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            for functions in root.iter('measure'):_x000D_
+                if functions.attrib['type'] == "Function":_x000D_
+                    guardails_obj.get_index_cnn(functions)_x000D_
+            assert exit_mock.called_x000D_
+            line = self.get_log_data(1)_x000D_
             self.assertTrue("Guardrail unable to find the tag CCN in the report " in line)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_coverage(self):_x000D__x000D_
-        """Function to test guardrail_coverage method"""_x000D__x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_coverage")_x000D__x000D_
-        print(line_2)_x000D__x000D_
-        self.assertTrue("Guardrail , passed Coverage threshold" in line_1)_x000D__x000D_
-        val = r'mypython -m coverage report --fail-under=85'_x000D__x000D_
+    <t xml:space="preserve">    def test_guardrail_coverage(self):_x000D_
+        """Function to test guardrail_coverage method"""_x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_coverage")_x000D_
+        print(line_2)_x000D_
+        self.assertTrue("Guardrail , passed Coverage threshold" in line_1)_x000D_
+        val = r'mypython -m coverage report --fail-under=85'_x000D_
         self.assertTrue(str(val) in line_2)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_coverage_fail(self):_x000D__x000D_
-        """Function to test guardrail_coverage_fail method"""_x000D__x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_coverage")_x000D__x000D_
-        print(line_2)_x000D__x000D_
-        self.assertTrue("Guardrail , failed Coverage threshold" in line_1)_x000D__x000D_
-        val = r'mypython -m coverage report --fail-under=85'_x000D__x000D_
+    <t xml:space="preserve">    def test_guardrail_coverage_fail(self):_x000D_
+        """Function to test guardrail_coverage_fail method"""_x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_coverage")_x000D_
+        print(line_2)_x000D_
+        self.assertTrue("Guardrail , failed Coverage threshold" in line_1)_x000D_
+        val = r'mypython -m coverage report --fail-under=85'_x000D_
         self.assertTrue(str(val) in line_2)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_cyclomatic_complexity(self, mock_subproc_call):_x000D__x000D_
-        """Function to test guardrail_cyclomatic_complexity method"""_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        guardails_obj.parse_cyclo_report_xml = Mock()_x000D__x000D_
-        guardails_obj.parse_cyclo_report_xml.return_value = {_x000D__x000D_
-            'get_file_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D__x000D_
-            '\\functiondefextractor\\core_extractor.py:11': '3',_x000D__x000D_
-            'get_function_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D__x000D_
-            '\\functiondefextractor\\core_extractor.py:28': '7'}_x000D__x000D_
-        mock_subproc_call.return_value = False_x000D__x000D_
-        guardails_obj.guardrail_cyclomatic_complexity()_x000D__x000D_
-        self.assertTrue(mock_subproc_call.called)_x000D__x000D_
-        line = self.get_log_data(1)_x000D__x000D_
-        self.assertTrue("Guardrail , passed Cyclomatic complexity" in line)_x000D__x000D_
-        mock_subproc_call.return_value = True_x000D__x000D_
-        with patch('sys.exit') as exit_mock:_x000D__x000D_
-            guardails_obj.guardrail_cyclomatic_complexity()_x000D__x000D_
-            line = self.get_log_data(2)_x000D__x000D_
-            self.assertTrue("Guardrail task, failed Cyclomating complexity generation" in line)_x000D__x000D_
-            assert exit_mock_x000D_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_guardrail_deadcode(self):_x000D__x000D_
-        """Function to test guardrail_deadcode method"""_x000D__x000D_
-        import os_x000D__x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_deadcode")_x000D__x000D_
-        self.assertTrue("Guardrail , passed Dead code detection" in line_1)_x000D__x000D_
-        val = r'mypython -m vulture C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\functiondefextractor ' \_x000D__x000D_
-              r'C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\test  --exclude C:\Projects\PythonRepo' \_x000D__x000D_
-              r'\python_sample\FunctionDefExtractor\test --min-confidence 100 &gt;C:\Projects\PythonRepo' \_x000D__x000D_
-              r'\REPORT\deadcode.txt'_x000D__x000D_
+    <t xml:space="preserve">    def test_guardrail_cyclomatic_complexity(self, mock_subproc_call):_x000D_
+        """Function to test guardrail_cyclomatic_complexity method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        guardails_obj.parse_cyclo_report_xml = Mock()_x000D_
+        guardails_obj.parse_cyclo_report_xml.return_value = {_x000D_
+            'get_file_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
+            '\\functiondefextractor\\core_extractor.py:11': '3',_x000D_
+            'get_function_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
+            '\\functiondefextractor\\core_extractor.py:28': '7'}_x000D_
+        mock_subproc_call.return_value = False_x000D_
+        guardails_obj.guardrail_cyclomatic_complexity()_x000D_
+        self.assertTrue(mock_subproc_call.called)_x000D_
+        line = self.get_log_data(1)_x000D_
+        self.assertTrue("Guardrail , passed Cyclomatic complexity" in line)_x000D_
+        mock_subproc_call.return_value = True_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            guardails_obj.guardrail_cyclomatic_complexity()_x000D_
+            line = self.get_log_data(2)_x000D_
+            self.assertTrue("Guardrail task, failed Cyclomating complexity generation" in line)_x000D_
+            assert exit_mock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_guardrail_deadcode(self):_x000D_
+        """Function to test guardrail_deadcode method"""_x000D_
+        import os_x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_deadcode")_x000D_
+        self.assertTrue("Guardrail , passed Dead code detection" in line_1)_x000D_
+        val = r'mypython -m vulture C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\functiondefextractor ' \_x000D_
+              r'C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\test  --exclude C:\Projects\PythonRepo' \_x000D_
+              r'\python_sample\FunctionDefExtractor\test --min-confidence 100 &gt;C:\Projects\PythonRepo' \_x000D_
+              r'\REPORT\deadcode.txt'_x000D_
         self.assertTrue(val.replace("\\", os.sep) in line_2.replace('\\', os.sep).replace("/", os.sep))</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_deadcode_fail(self):_x000D__x000D_
-        """Function to test guardrail_deadcode_fail method"""_x000D__x000D_
-        import os_x000D__x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_deadcode")_x000D__x000D_
-        self.assertTrue("Guardrail , failed Dead code detection" in line_1)_x000D__x000D_
-        val = r'mypython -m vulture C:\Projects\PythonRepo\python_sample\FunctionDefExtractor' \_x000D__x000D_
-              r'\functiondefextractor ' \_x000D__x000D_
-              r'C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\test  --exclude' \_x000D__x000D_
-              r' C:\Projects\PythonRepo' \_x000D__x000D_
-              r'\python_sample\FunctionDefExtractor\test --min-confidence 100 &gt;C:\Projects' \_x000D__x000D_
-              r'\PythonRepo\REPORT\deadcode.txt'_x000D__x000D_
+    <t xml:space="preserve">    def test_guardrail_deadcode_fail(self):_x000D_
+        """Function to test guardrail_deadcode_fail method"""_x000D_
+        import os_x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_deadcode")_x000D_
+        self.assertTrue("Guardrail , failed Dead code detection" in line_1)_x000D_
+        val = r'mypython -m vulture C:\Projects\PythonRepo\python_sample\FunctionDefExtractor' \_x000D_
+              r'\functiondefextractor ' \_x000D_
+              r'C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\test  --exclude' \_x000D_
+              r' C:\Projects\PythonRepo' \_x000D_
+              r'\python_sample\FunctionDefExtractor\test --min-confidence 100 &gt;C:\Projects' \_x000D_
+              r'\PythonRepo\REPORT\deadcode.txt'_x000D_
         self.assertTrue(val.replace('\\', os.sep) in line_2.replace('\\', os.sep).replace("/", os.sep))</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_jscpd(self):_x000D__x000D_
-        """Function to test guardrail_jscpd method"""_x000D__x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_jscpd")_x000D__x000D_
-        self.assertTrue("Guardrail task, passed Copy Paste Detection report generation" in line_1)_x000D__x000D_
-        val = r'command for sub process:jscpd --min-tokens 20  --ignore C:\Projects\PythonRepo\python_sample' \_x000D__x000D_
-              r'\FunctionDefExtractor\test  --max-lines 100000 --max-size 100mb --reporters "json,html"' \_x000D__x000D_
-              r' --mode "strict" --format "python, java" -o'_x000D__x000D_
+    <t xml:space="preserve">    def test_guardrail_jscpd(self):_x000D_
+        """Function to test guardrail_jscpd method"""_x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_jscpd")_x000D_
+        self.assertTrue("Guardrail task, passed Copy Paste Detection report generation" in line_1)_x000D_
+        val = r'command for sub process:jscpd --min-tokens 20  --ignore C:\Projects\PythonRepo\python_sample' \_x000D_
+              r'\FunctionDefExtractor\test  --max-lines 100000 --max-size 100mb --reporters "json,html"' \_x000D_
+              r' --mode "strict" --format "python, java" -o'_x000D_
         self.assertTrue(str(val) in line_2)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_jscpd_fail(self):_x000D__x000D_
-        """Function to test guardrail_jscpd_fail method"""_x000D__x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_jscpd")_x000D__x000D_
-        self.assertTrue("Guardrail task, failed Copy Paste Detection report generation" in line_1)_x000D__x000D_
-        val = r'command for sub process:jscpd --min-tokens 20  --ignore C:\Projects\PythonRepo\python_sample' \_x000D__x000D_
-              r'\FunctionDefExtractor\test  --max-lines 100000 --max-size 100mb --reporters "json,html" --mode ' \_x000D__x000D_
-              r'"strict" --format "python, java" -o'_x000D__x000D_
+    <t xml:space="preserve">    def test_guardrail_jscpd_fail(self):_x000D_
+        """Function to test guardrail_jscpd_fail method"""_x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_jscpd")_x000D_
+        self.assertTrue("Guardrail task, failed Copy Paste Detection report generation" in line_1)_x000D_
+        val = r'command for sub process:jscpd --min-tokens 20  --ignore C:\Projects\PythonRepo\python_sample' \_x000D_
+              r'\FunctionDefExtractor\test  --max-lines 100000 --max-size 100mb --reporters "json,html" --mode ' \_x000D_
+              r'"strict" --format "python, java" -o'_x000D_
         self.assertTrue(str(val) in line_2)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_lint(self, mock_subproc_call):_x000D__x000D_
-        """Function to test guardrail_lint method"""_x000D__x000D_
-        import os_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        global_obj = GuardrailGlobals()_x000D__x000D_
-        mock_subproc_call.return_value = False_x000D__x000D_
-        guardails_obj.lint_ignore = self.get_file_name("test_resource", "pylint_ignore.txt")_x000D__x000D_
-        guardails_obj.generate_files_lint = MagicMock(return_value=" ")_x000D__x000D_
-        global_obj.report_folder = os.getcwd()_x000D__x000D_
-        guardails_obj.guardrail_lint()_x000D__x000D_
-        self.assertTrue(mock_subproc_call.called)_x000D__x000D_
-        line = self.get_log_data(1)_x000D__x000D_
-        self.assertTrue("Guardrail , passed Linting." in str(line))_x000D__x000D_
-        mock_subproc_call.return_value = True_x000D__x000D_
-        with patch('sys.exit') as exit_mock:_x000D__x000D_
-            guardails_obj.guardrail_lint()_x000D__x000D_
-            line = self.get_log_data(1)_x000D__x000D_
-            self.assertTrue("Guardrail , failed Linting." in str(line))_x000D__x000D_
-            assert exit_mock_x000D__x000D_
+    <t xml:space="preserve">    def test_guardrail_lint(self, mock_subproc_call):_x000D_
+        """Function to test guardrail_lint method"""_x000D_
+        import os_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        global_obj = GuardrailGlobals()_x000D_
+        mock_subproc_call.return_value = False_x000D_
+        guardails_obj.lint_ignore = self.get_file_name("test_resource", "pylint_ignore.txt")_x000D_
+        guardails_obj.generate_files_lint = MagicMock(return_value=" ")_x000D_
+        global_obj.report_folder = os.getcwd()_x000D_
+        guardails_obj.guardrail_lint()_x000D_
+        self.assertTrue(mock_subproc_call.called)_x000D_
+        line = self.get_log_data(1)_x000D_
+        self.assertTrue("Guardrail , passed Linting." in str(line))_x000D_
+        mock_subproc_call.return_value = True_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            guardails_obj.guardrail_lint()_x000D_
+            line = self.get_log_data(1)_x000D_
+            self.assertTrue("Guardrail , failed Linting." in str(line))_x000D_
+            assert exit_mock_x000D_
         self.assertTrue(mock_subproc_call.called)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_mutation(self, mock_subproc_call):_x000D__x000D_
-        """Function to test guardrail_mutation method"""_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        guardails_obj.parse_mutmut_report_xml = Mock()_x000D__x000D_
-        guardails_obj.parse_mutmut_report_xml.return_value = None_x000D__x000D_
-        mock_subproc_call.return_value = False_x000D__x000D_
-        guardails_obj.guardrail_mutation()_x000D__x000D_
-        self.assertTrue(mock_subproc_call.called)_x000D__x000D_
-        line = self.get_log_data(1)_x000D__x000D_
-        self.assertTrue("Guardrail task, passed Mutation testing report generation." in line)_x000D__x000D_
-        mock_subproc_call.return_value = True_x000D__x000D_
-        with patch('sys.exit') as exit_mock:_x000D__x000D_
-            guardails_obj.guardrail_mutation()_x000D__x000D_
-            line = self.get_log_data(1)_x000D__x000D_
-            self.assertTrue("Guardrail task, failed Mutation testing " in line)_x000D__x000D_
-            assert exit_mock_x000D_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_guardrail_test(self):_x000D__x000D_
-        """Function to test guardrail_test method"""_x000D__x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_test")_x000D__x000D_
-        self.assertTrue("Guardrail task, passed Test execution and coverage generation" in line_1)_x000D__x000D_
-        val = r'mypython -m pytest C:\Projects\PythonRepo\python_sample\FunctionDefExtractor' \_x000D__x000D_
-              r' --cov-config=C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\.coveragerc ' \_x000D__x000D_
-              r'--cov-report "html" --cov=C:\Projects\PythonRepo\python_sample' \_x000D__x000D_
-              r'\FunctionDefExtractor\functiondefextractor'_x000D__x000D_
+    <t xml:space="preserve">    def test_guardrail_mutation(self, mock_subproc_call):_x000D_
+        """Function to test guardrail_mutation method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        guardails_obj.parse_mutmut_report_xml = Mock()_x000D_
+        guardails_obj.parse_mutmut_report_xml.return_value = None_x000D_
+        mock_subproc_call.return_value = False_x000D_
+        guardails_obj.guardrail_mutation()_x000D_
+        self.assertTrue(mock_subproc_call.called)_x000D_
+        line = self.get_log_data(1)_x000D_
+        self.assertTrue("Guardrail task, passed Mutation testing report generation." in line)_x000D_
+        mock_subproc_call.return_value = True_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            guardails_obj.guardrail_mutation()_x000D_
+            line = self.get_log_data(1)_x000D_
+            self.assertTrue("Guardrail task, failed Mutation testing " in line)_x000D_
+            assert exit_mock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_guardrail_test(self):_x000D_
+        """Function to test guardrail_test method"""_x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_test")_x000D_
+        self.assertTrue("Guardrail task, passed Test execution and coverage generation" in line_1)_x000D_
+        val = r'mypython -m pytest C:\Projects\PythonRepo\python_sample\FunctionDefExtractor' \_x000D_
+              r' --cov-config=C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\.coveragerc ' \_x000D_
+              r'--cov-report "html" --cov=C:\Projects\PythonRepo\python_sample' \_x000D_
+              r'\FunctionDefExtractor\functiondefextractor'_x000D_
         self.assertTrue(str(val) in line_2)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_guardrail_test_fail(self):_x000D__x000D_
-        """Function to test guardrail_test_fail method"""_x000D__x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_test")_x000D__x000D_
-        self.assertTrue("Guardrail task, failed Test execution and coverage generation" in line_1)_x000D__x000D_
-        val = r'mypython -m pytest C:\Projects\PythonRepo\python_sample\FunctionDefExtractor ' \_x000D__x000D_
-              r'--cov-config=C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\.coveragerc ' \_x000D__x000D_
-              r'--cov-report "html" --cov=C:\Projects\PythonRepo\python_sample' \_x000D__x000D_
-              r'\FunctionDefExtractor\functiondefextractor'_x000D__x000D_
+    <t xml:space="preserve">    def test_guardrail_test_fail(self):_x000D_
+        """Function to test guardrail_test_fail method"""_x000D_
+        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_test")_x000D_
+        self.assertTrue("Guardrail task, failed Test execution and coverage generation" in line_1)_x000D_
+        val = r'mypython -m pytest C:\Projects\PythonRepo\python_sample\FunctionDefExtractor ' \_x000D_
+              r'--cov-config=C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\.coveragerc ' \_x000D_
+              r'--cov-report "html" --cov=C:\Projects\PythonRepo\python_sample' \_x000D_
+              r'\FunctionDefExtractor\functiondefextractor'_x000D_
         self.assertTrue(str(val) in line_2)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_list_to_str_folders(self):_x000D__x000D_
-        """Function to test list_to_str_folders method"""_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        self.stub_globals(guardails_obj)_x000D__x000D_
+    <t xml:space="preserve">    def test_list_to_str_folders(self):_x000D_
+        """Function to test list_to_str_folders method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        self.stub_globals(guardails_obj)_x000D_
         self.assertEqual(guardails_obj.list_to_str_folders(), "abc test")</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_mov_cov_report(self, mock_subproc_call, mock_shut_rmtr, mock_shut_mov):_x000D__x000D_
-        """Function to test mov_cov_report method"""_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        process_sub_mock = mock.Mock()_x000D__x000D_
-        patcher_exist = mock.patch('os.path.exists')_x000D__x000D_
-        mock_thing = patcher_exist.start()_x000D__x000D_
-        mock_thing.return_value = True_x000D__x000D_
-        patcher_isdir = mock.patch('os.path.isdir')_x000D__x000D_
-        mock_thing_isdir = patcher_isdir.start()_x000D__x000D_
-        mock_thing_isdir.return_value = True_x000D__x000D_
-        mock_subproc_call.return_value = process_sub_mock_x000D__x000D_
-        mock_shut_rmtr.return_value = process_sub_mock_x000D__x000D_
-        mock_shut_mov.return_value = process_sub_mock_x000D__x000D_
-        guardails_obj.validate_return = self.stub_validate_return_x000D__x000D_
-        guardails_obj.mov_cov_report()_x000D__x000D_
+    <t xml:space="preserve">    def test_mov_cov_report(self, mock_subproc_call, mock_shut_rmtr, mock_shut_mov):_x000D_
+        """Function to test mov_cov_report method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        process_sub_mock = mock.Mock()_x000D_
+        patcher_exist = mock.patch('os.path.exists')_x000D_
+        mock_thing = patcher_exist.start()_x000D_
+        mock_thing.return_value = True_x000D_
+        patcher_isdir = mock.patch('os.path.isdir')_x000D_
+        mock_thing_isdir = patcher_isdir.start()_x000D_
+        mock_thing_isdir.return_value = True_x000D_
+        mock_subproc_call.return_value = process_sub_mock_x000D_
+        mock_shut_rmtr.return_value = process_sub_mock_x000D_
+        mock_shut_mov.return_value = process_sub_mock_x000D_
+        guardails_obj.validate_return = self.stub_validate_return_x000D_
+        guardails_obj.mov_cov_report()_x000D_
         self.assertTrue(mock_subproc_call.called)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_orchestrate_guardrails(self):_x000D__x000D_
-        """Function to test orchestrate_guardrails method"""_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        guardails_obj.check_report_dir = Mock()_x000D__x000D_
-        guardails_obj.mov_cov_report = Mock()_x000D__x000D_
-        guardails_obj.mov_cov_report.return_value = True_x000D__x000D_
-        self.assertTrue(guardails_obj.mov_cov_report.return_value)_x000D__x000D_
-        guardails_obj.guardrail_lint = Mock()_x000D__x000D_
-        guardails_obj.guardrail_lint.return_value = True_x000D__x000D_
-        self.assertTrue(guardails_obj.guardrail_lint.return_value)_x000D__x000D_
-        guardails_obj.guardrail_jscpd = Mock()_x000D__x000D_
-        guardails_obj.guardrail_jscpd.return_value = True_x000D__x000D_
-        self.assertTrue(guardails_obj.guardrail_jscpd.return_value)_x000D__x000D_
-        guardails_obj.guardrail_test = Mock()_x000D__x000D_
-        guardails_obj.guardrail_test.return_value = True_x000D__x000D_
-        self.assertTrue(guardails_obj.guardrail_test.return_value)_x000D__x000D_
-        guardails_obj.guardrail_coverage = Mock()_x000D__x000D_
-        guardails_obj.guardrail_coverage.return_value = True_x000D__x000D_
-        self.assertTrue(guardails_obj.guardrail_coverage.return_value)_x000D__x000D_
-        guardails_obj.guardrail_mutation = Mock()_x000D__x000D_
-        guardails_obj.guardrail_mutation.return_value = True_x000D__x000D_
-        self.assertTrue(guardails_obj.guardrail_mutation.return_value)_x000D__x000D_
-        guardails_obj.guardrail_deadcode = Mock()_x000D__x000D_
-        guardails_obj.guardrail_deadcode.return_value = True_x000D__x000D_
-        self.assertTrue(guardails_obj.guardrail_deadcode.return_value)_x000D__x000D_
-        guardails_obj.guardrail_cyclomatic_complexity = Mock()_x000D__x000D_
-        guardails_obj.guardrail_cyclomatic_complexity.return_value = True_x000D__x000D_
-        self.assertTrue(guardails_obj.guardrail_cyclomatic_complexity.return_value)_x000D__x000D_
-        guardails_obj.orchestrate_guardrails()_x000D_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_parse_cyclo_report_xml(self):_x000D__x000D_
-        """Function to test parse_cyclo_report_xml method"""_x000D__x000D_
-        file_name = self.get_file_name("test_resource", "CC.xml")_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        guardails_obj.get_all_func_cnn = Mock()_x000D__x000D_
-        guardails_obj.get_all_func_cnn.return_value = self.stub_get_all_func_cnn_x000D__x000D_
-        assert guardails_obj.parse_cyclo_report_xml(file_name)_x000D__x000D_
-        file_name = self.get_file_name("test_resourc", "CC.xml")_x000D__x000D_
-        with patch('sys.exit') as exit_mock:_x000D__x000D_
-            guardails_obj.parse_cyclo_report_xml(file_name)_x000D__x000D_
-            line = self.get_log_data(1)_x000D__x000D_
-            self.assertTrue("cc.xml report file path" in line)_x000D__x000D_
-            file_name = self.get_file_name("test_resource", "CC_test.xml")_x000D__x000D_
-            guardails_obj.parse_cyclo_report_xml(file_name)_x000D__x000D_
-            file_name = self.get_file_name("test_resource", "CC_test_None.xml")_x000D__x000D_
-            guardails_obj.parse_cyclo_report_xml(file_name)_x000D__x000D_
-            line = self.get_log_data(1)_x000D__x000D_
-            self.assertTrue("tags required are not found in cc.xml report file path" in line)_x000D__x000D_
+    <t xml:space="preserve">    def test_orchestrate_guardrails(self):_x000D_
+        """Function to test orchestrate_guardrails method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        guardails_obj.check_report_dir = Mock()_x000D_
+        guardails_obj.mov_cov_report = Mock()_x000D_
+        guardails_obj.mov_cov_report.return_value = True_x000D_
+        self.assertTrue(guardails_obj.mov_cov_report.return_value)_x000D_
+        guardails_obj.guardrail_lint = Mock()_x000D_
+        guardails_obj.guardrail_lint.return_value = True_x000D_
+        self.assertTrue(guardails_obj.guardrail_lint.return_value)_x000D_
+        guardails_obj.guardrail_jscpd = Mock()_x000D_
+        guardails_obj.guardrail_jscpd.return_value = True_x000D_
+        self.assertTrue(guardails_obj.guardrail_jscpd.return_value)_x000D_
+        guardails_obj.guardrail_test = Mock()_x000D_
+        guardails_obj.guardrail_test.return_value = True_x000D_
+        self.assertTrue(guardails_obj.guardrail_test.return_value)_x000D_
+        guardails_obj.guardrail_coverage = Mock()_x000D_
+        guardails_obj.guardrail_coverage.return_value = True_x000D_
+        self.assertTrue(guardails_obj.guardrail_coverage.return_value)_x000D_
+        guardails_obj.guardrail_mutation = Mock()_x000D_
+        guardails_obj.guardrail_mutation.return_value = True_x000D_
+        self.assertTrue(guardails_obj.guardrail_mutation.return_value)_x000D_
+        guardails_obj.guardrail_deadcode = Mock()_x000D_
+        guardails_obj.guardrail_deadcode.return_value = True_x000D_
+        self.assertTrue(guardails_obj.guardrail_deadcode.return_value)_x000D_
+        guardails_obj.guardrail_cyclomatic_complexity = Mock()_x000D_
+        guardails_obj.guardrail_cyclomatic_complexity.return_value = True_x000D_
+        self.assertTrue(guardails_obj.guardrail_cyclomatic_complexity.return_value)_x000D_
+        guardails_obj.orchestrate_guardrails()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_parse_cyclo_report_xml(self):_x000D_
+        """Function to test parse_cyclo_report_xml method"""_x000D_
+        file_name = self.get_file_name("test_resource", "CC.xml")_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        guardails_obj.get_all_func_cnn = Mock()_x000D_
+        guardails_obj.get_all_func_cnn.return_value = self.stub_get_all_func_cnn_x000D_
+        assert guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
+        file_name = self.get_file_name("test_resourc", "CC.xml")_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
+            line = self.get_log_data(1)_x000D_
+            self.assertTrue("cc.xml report file path" in line)_x000D_
+            file_name = self.get_file_name("test_resource", "CC_test.xml")_x000D_
+            guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
+            file_name = self.get_file_name("test_resource", "CC_test_None.xml")_x000D_
+            guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
+            line = self.get_log_data(1)_x000D_
+            self.assertTrue("tags required are not found in cc.xml report file path" in line)_x000D_
             assert exit_mock.called</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_parse_jscpd_report_json(self):_x000D__x000D_
-        """Function to test parse_jscpd_report_json method"""_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        file_name = self.get_file_name("test_resource", "jscpd-report.json")_x000D__x000D_
-        guardails_obj.parse_jscpd_report_json(5, file_name)_x000D__x000D_
-        with patch('sys.exit') as exit_mock:_x000D__x000D_
-            guardails_obj.parse_jscpd_report_json(0, file_name)_x000D__x000D_
-            file_name = self.get_file_name("test_resource", "jscpd-report_test.json")_x000D__x000D_
-            guardails_obj.parse_jscpd_report_json(0, file_name)_x000D__x000D_
-            file_name = self.get_file_name("test_resource", "jscpd-report_test _error.json")_x000D__x000D_
-            guardails_obj.parse_jscpd_report_json(0, file_name)_x000D__x000D_
-            assert exit_mock.called_x000D__x000D_
-            line = self.get_log_data(3)_x000D__x000D_
-            self.assertTrue("Guardrail gating, failed jscpd." in line)_x000D__x000D_
-            line = self.get_log_data(4)_x000D__x000D_
-            self.assertTrue("Guardrail gating passed jscpd" in line)_x000D__x000D_
-            line = self.get_log_data(2)_x000D__x000D_
-            self.assertTrue("jscpd report not correctly generated" in line)_x000D__x000D_
-            line = self.get_log_data(1)_x000D__x000D_
+    <t xml:space="preserve">    def test_parse_jscpd_report_json(self):_x000D_
+        """Function to test parse_jscpd_report_json method"""_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        file_name = self.get_file_name("test_resource", "jscpd-report.json")_x000D_
+        guardails_obj.parse_jscpd_report_json(5, file_name)_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            guardails_obj.parse_jscpd_report_json(0, file_name)_x000D_
+            file_name = self.get_file_name("test_resource", "jscpd-report_test.json")_x000D_
+            guardails_obj.parse_jscpd_report_json(0, file_name)_x000D_
+            file_name = self.get_file_name("test_resource", "jscpd-report_test _error.json")_x000D_
+            guardails_obj.parse_jscpd_report_json(0, file_name)_x000D_
+            assert exit_mock.called_x000D_
+            line = self.get_log_data(3)_x000D_
+            self.assertTrue("Guardrail gating, failed jscpd." in line)_x000D_
+            line = self.get_log_data(4)_x000D_
+            self.assertTrue("Guardrail gating passed jscpd" in line)_x000D_
+            line = self.get_log_data(2)_x000D_
+            self.assertTrue("jscpd report not correctly generated" in line)_x000D_
+            line = self.get_log_data(1)_x000D_
             self.assertTrue("jscpd report not generated" in line)</t>
   </si>
   <si>
-    <t xml:space="preserve">    def test_parse_mutmut_report_xml(self):_x000D__x000D_
-        """Function to test parse_mutmut_report_xml method"""_x000D__x000D_
-        file_name = self.get_file_name("test_resource", "mutmut.xml")_x000D__x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D__x000D_
-        guardails_obj.parse_mutmut_report_xml(50, file_name)_x000D__x000D_
-        line = self.get_log_data(1)_x000D__x000D_
-        self.assertTrue("Guardrail gating, passed mutation" in str(line))_x000D__x000D_
-        file_name = self.get_file_name("test_resourc", "mutmut.xml")_x000D__x000D_
-        with patch('sys.exit') as exit_mock:_x000D__x000D_
-            guardails_obj.parse_mutmut_report_xml(50, file_name)_x000D__x000D_
-            assert exit_mock.called_x000D__x000D_
-            line = self.get_log_data(1)_x000D__x000D_
-            self.assertTrue("mutmut.xml report file path cound not be found" in line)_x000D_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_validate_return(self):_x000D__x000D_
-        """Function to test validate_return method"""_x000D__x000D_
-        list_test = [[1, "test", True, "Guardrail , failed test."], [0, "test", False, "Guardrail task, passed test."]]_x000D__x000D_
-        for i, _ in enumerate(list_test):_x000D__x000D_
-            assert self.get_validate_return(list_test[i][0], list_test[i][1], list_test[i][2]).strip() \_x000D__x000D_
+    <t xml:space="preserve">    def test_parse_mutmut_report_xml(self):_x000D_
+        """Function to test parse_mutmut_report_xml method"""_x000D_
+        file_name = self.get_file_name("test_resource", "mutmut.xml")_x000D_
+        guardails_obj = self.get_guardrails_obj()_x000D_
+        guardails_obj.parse_mutmut_report_xml(50, file_name)_x000D_
+        line = self.get_log_data(1)_x000D_
+        self.assertTrue("Guardrail gating, passed mutation" in str(line))_x000D_
+        file_name = self.get_file_name("test_resourc", "mutmut.xml")_x000D_
+        with patch('sys.exit') as exit_mock:_x000D_
+            guardails_obj.parse_mutmut_report_xml(50, file_name)_x000D_
+            assert exit_mock.called_x000D_
+            line = self.get_log_data(1)_x000D_
+            self.assertTrue("mutmut.xml report file path cound not be found" in line)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def test_validate_return(self):_x000D_
+        """Function to test validate_return method"""_x000D_
+        list_test = [[1, "test", True, "Guardrail , failed test."], [0, "test", False, "Guardrail task, passed test."]]_x000D_
+        for i, _ in enumerate(list_test):_x000D_
+            assert self.get_validate_return(list_test[i][0], list_test[i][1], list_test[i][2]).strip() \_x000D_
                    == list_test[i][3]</t>
   </si>
 </sst>

--- a/test_resource/codeextractor_T_T.xlsx
+++ b/test_resource/codeextractor_T_T.xlsx
@@ -22,446 +22,466 @@
     <t>Uniq ID</t>
   </si>
   <si>
-    <t>test_guardrails.py_test_call_subprocess_error</t>
-  </si>
-  <si>
-    <t>test_guardrails.py_test_call_subprocess_noerror</t>
-  </si>
-  <si>
-    <t>test_guardrails.py_test_check_pass_fail_success</t>
-  </si>
-  <si>
-    <t>test_guardrails.py_test_check_report_dir</t>
-  </si>
-  <si>
-    <t>test_guardrails.py_test_file_exists_exit</t>
-  </si>
-  <si>
-    <t>test_guardrails.py_test_get_all_func_cnn</t>
-  </si>
-  <si>
-    <t>test_guardrails.py_test_get_index_cnn</t>
-  </si>
-  <si>
-    <t>test_guardrails.py_test_guardrail_coverage</t>
-  </si>
-  <si>
-    <t>test_guardrails.py_test_guardrail_coverage_fail</t>
-  </si>
-  <si>
-    <t>test_guardrails.py_test_guardrail_cyclomatic_complexity</t>
-  </si>
-  <si>
-    <t>test_guardrails.py_test_guardrail_deadcode</t>
-  </si>
-  <si>
-    <t>test_guardrails.py_test_guardrail_deadcode_fail</t>
-  </si>
-  <si>
-    <t>test_guardrails.py_test_guardrail_jscpd</t>
-  </si>
-  <si>
-    <t>test_guardrails.py_test_guardrail_jscpd_fail</t>
-  </si>
-  <si>
-    <t>test_guardrails.py_test_guardrail_lint</t>
-  </si>
-  <si>
-    <t>test_guardrails.py_test_guardrail_mutation</t>
-  </si>
-  <si>
-    <t>test_guardrails.py_test_guardrail_test</t>
-  </si>
-  <si>
-    <t>test_guardrails.py_test_guardrail_test_fail</t>
-  </si>
-  <si>
-    <t>test_guardrails.py_test_list_to_str_folders</t>
-  </si>
-  <si>
-    <t>test_guardrails.py_test_mov_cov_report</t>
-  </si>
-  <si>
-    <t>test_guardrails.py_test_orchestrate_guardrails</t>
-  </si>
-  <si>
-    <t>test_guardrails.py_test_parse_cyclo_report_xml</t>
-  </si>
-  <si>
-    <t>test_guardrails.py_test_parse_jscpd_report_json</t>
-  </si>
-  <si>
-    <t>test_guardrails.py_test_parse_mutmut_report_xml</t>
-  </si>
-  <si>
-    <t>test_guardrails.py_test_validate_return</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_call_subprocess_error(self):_x000D_
-        """Function to test call_subprocess_error method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        try:_x000D_
-            guardails_obj.call_subprocess("lshrs")_x000D_
-        except KeyError:_x000D_
-            pass_x000D_
-        self.assertNotEqual(guardails_obj.call_subprocess("lshrs"), 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_call_subprocess_noerror(self):_x000D_
-        """Function to test call_subprocess_noerror method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        ret_val = guardails_obj.call_subprocess("dir")_x000D_
-        self.assertEqual(ret_val, 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_check_pass_fail_success(self):_x000D_
-        """Function to test check_pass_fail_success method"""_x000D_
-        list_test = [[10, 100, 10, "Guardrail gating, passed mutation"],_x000D_
-                     [10, 100, 1, "Guardrail gating, failed mutation"],_x000D_
-                     [10, 0, 10, "Guardrail gating, failed: mutation test did not run"]]_x000D_
-        for i, _ in enumerate(list_test):_x000D_
-            self.assertTrue(list_test[i][3] in self.get_check_pass_fail_status(list_test[i][0],_x000D_
-                                                                               list_test[i][1], list_test[i][2]))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_check_report_dir(self, mock_path_exists, mock_mkdir):_x000D_
-        """Function to test check_report_dir method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        mock_path_exists.return_value = True_x000D_
-        mock_mkdir.return_value = False_x000D_
-        guardails_obj.check_report_dir()_x000D_
-        self.assertTrue(mock_mkdir.called)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_file_exists_exit(self):  # pylint: disable=R0201_x000D_
-        """Function to test file_exists_exit method"""_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            Guardails.file_exists("abc")_x000D_
-            assert exit_mock.called</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_get_all_func_cnn(self):_x000D_
-        """Function to test get_all_func_cnn method"""_x000D_
-        file_name = self.get_file_name("test_resource", "CC.xml")_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        guardails_obj.get_index_cnn = Mock()_x000D_
-        guardails_obj.get_index_cnn.return_value = int(2)_x000D_
-        expec_data = {_x000D_
-            'get_file_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
-            '\\functiondefextractor\\core_extractor.py:11': '3',_x000D_
-            'get_function_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
-            '\\functiondefextractor\\core_extractor.py:28': '7'}_x000D_
-        root = ETree.parse(file_name).getroot()_x000D_
-        for functions in root.iter('measure'):_x000D_
-            if functions.attrib['type'] == "Function":_x000D_
-                assert expec_data == guardails_obj.get_all_func_cnn(functions)_x000D_
-        file_name = self.get_file_name("test_resource", "CC_test_Func.xml")_x000D_
-        root = ETree.parse(file_name).getroot()_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            for functions in root.iter('measure'):_x000D_
-                if functions.attrib['type'] == "Function":_x000D_
-                    guardails_obj.get_all_func_cnn(functions)_x000D_
-            file_name = self.get_file_name("test_resource", "CC_test_func_empty.xml")_x000D_
-            root = ETree.parse(file_name).getroot()_x000D_
-            for functions in root.iter('measure'):_x000D_
-                if functions.attrib['type'] == "Function":_x000D_
-                    guardails_obj.get_all_func_cnn(functions)_x000D_
-            assert exit_mock.called_x000D_
-            line = self.get_log_data(2)_x000D_
-            self.assertTrue(_x000D_
-                "Guardrail unable to find the tags item/value/name in the report " in line)_x000D_
-            line = self.get_log_data(1)_x000D_
-            self.assertTrue(_x000D_
-                "Guardrail unable to find the tags item/value/name in the report file " in line)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_get_index_cnn(self):_x000D_
-        """Function to test get_index_cnn method"""_x000D_
-        file_name = self.get_file_name("test_resource", "CC.xml")_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        root = ETree.parse(file_name).getroot()_x000D_
-        for functions in root.iter('measure'):_x000D_
-            if functions.attrib['type'] == "Function":_x000D_
-                assert guardails_obj.get_index_cnn(functions) == 2_x000D_
-        file_name = self.get_file_name("test_resource", "CC_test_func_empty.xml")_x000D_
-        root = ETree.parse(file_name).getroot()_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            for functions in root.iter('measure'):_x000D_
-                if functions.attrib['type'] == "Function":_x000D_
-                    guardails_obj.get_index_cnn(functions)_x000D_
-            assert exit_mock.called_x000D_
-            line = self.get_log_data(1)_x000D_
-            self.assertTrue("Guardrail unable to find the tag CCN in the report " in line)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_guardrail_coverage(self):_x000D_
-        """Function to test guardrail_coverage method"""_x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_coverage")_x000D_
-        print(line_2)_x000D_
-        self.assertTrue("Guardrail , passed Coverage threshold" in line_1)_x000D_
-        val = r'mypython -m coverage report --fail-under=85'_x000D_
-        self.assertTrue(str(val) in line_2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_guardrail_coverage_fail(self):_x000D_
-        """Function to test guardrail_coverage_fail method"""_x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_coverage")_x000D_
-        print(line_2)_x000D_
-        self.assertTrue("Guardrail , failed Coverage threshold" in line_1)_x000D_
-        val = r'mypython -m coverage report --fail-under=85'_x000D_
-        self.assertTrue(str(val) in line_2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_guardrail_cyclomatic_complexity(self, mock_subproc_call):_x000D_
-        """Function to test guardrail_cyclomatic_complexity method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        guardails_obj.parse_cyclo_report_xml = Mock()_x000D_
-        guardails_obj.parse_cyclo_report_xml.return_value = {_x000D_
-            'get_file_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
-            '\\functiondefextractor\\core_extractor.py:11': '3',_x000D_
-            'get_function_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
-            '\\functiondefextractor\\core_extractor.py:28': '7'}_x000D_
-        mock_subproc_call.return_value = False_x000D_
-        guardails_obj.guardrail_cyclomatic_complexity()_x000D_
-        self.assertTrue(mock_subproc_call.called)_x000D_
-        line = self.get_log_data(1)_x000D_
-        self.assertTrue("Guardrail , passed Cyclomatic complexity" in line)_x000D_
-        mock_subproc_call.return_value = True_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            guardails_obj.guardrail_cyclomatic_complexity()_x000D_
-            line = self.get_log_data(2)_x000D_
-            self.assertTrue("Guardrail task, failed Cyclomating complexity generation" in line)_x000D_
-            assert exit_mock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_guardrail_deadcode(self):_x000D_
-        """Function to test guardrail_deadcode method"""_x000D_
-        import os_x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_deadcode")_x000D_
-        self.assertTrue("Guardrail , passed Dead code detection" in line_1)_x000D_
-        val = r'mypython -m vulture C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\functiondefextractor ' \_x000D_
-              r'C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\test  --exclude C:\Projects\PythonRepo' \_x000D_
-              r'\python_sample\FunctionDefExtractor\test --min-confidence 100 &gt;C:\Projects\PythonRepo' \_x000D_
-              r'\REPORT\deadcode.txt'_x000D_
-        self.assertTrue(val.replace("\\", os.sep) in line_2.replace('\\', os.sep).replace("/", os.sep))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_guardrail_deadcode_fail(self):_x000D_
-        """Function to test guardrail_deadcode_fail method"""_x000D_
-        import os_x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_deadcode")_x000D_
-        self.assertTrue("Guardrail , failed Dead code detection" in line_1)_x000D_
-        val = r'mypython -m vulture C:\Projects\PythonRepo\python_sample\FunctionDefExtractor' \_x000D_
-              r'\functiondefextractor ' \_x000D_
-              r'C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\test  --exclude' \_x000D_
-              r' C:\Projects\PythonRepo' \_x000D_
-              r'\python_sample\FunctionDefExtractor\test --min-confidence 100 &gt;C:\Projects' \_x000D_
-              r'\PythonRepo\REPORT\deadcode.txt'_x000D_
-        self.assertTrue(val.replace('\\', os.sep) in line_2.replace('\\', os.sep).replace("/", os.sep))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_guardrail_jscpd(self):_x000D_
-        """Function to test guardrail_jscpd method"""_x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_jscpd")_x000D_
-        self.assertTrue("Guardrail task, passed Copy Paste Detection report generation" in line_1)_x000D_
-        val = r'command for sub process:jscpd --min-tokens 20  --ignore C:\Projects\PythonRepo\python_sample' \_x000D_
-              r'\FunctionDefExtractor\test  --max-lines 100000 --max-size 100mb --reporters "json,html"' \_x000D_
-              r' --mode "strict" --format "python, java" -o'_x000D_
-        self.assertTrue(str(val) in line_2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_guardrail_jscpd_fail(self):_x000D_
-        """Function to test guardrail_jscpd_fail method"""_x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_jscpd")_x000D_
-        self.assertTrue("Guardrail task, failed Copy Paste Detection report generation" in line_1)_x000D_
-        val = r'command for sub process:jscpd --min-tokens 20  --ignore C:\Projects\PythonRepo\python_sample' \_x000D_
-              r'\FunctionDefExtractor\test  --max-lines 100000 --max-size 100mb --reporters "json,html" --mode ' \_x000D_
-              r'"strict" --format "python, java" -o'_x000D_
-        self.assertTrue(str(val) in line_2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_guardrail_lint(self, mock_subproc_call):_x000D_
-        """Function to test guardrail_lint method"""_x000D_
-        import os_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        global_obj = GuardrailGlobals()_x000D_
-        mock_subproc_call.return_value = False_x000D_
-        guardails_obj.lint_ignore = self.get_file_name("test_resource", "pylint_ignore.txt")_x000D_
-        guardails_obj.generate_files_lint = MagicMock(return_value=" ")_x000D_
-        global_obj.report_folder = os.getcwd()_x000D_
-        guardails_obj.guardrail_lint()_x000D_
-        self.assertTrue(mock_subproc_call.called)_x000D_
-        line = self.get_log_data(1)_x000D_
-        self.assertTrue("Guardrail , passed Linting." in str(line))_x000D_
-        mock_subproc_call.return_value = True_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            guardails_obj.guardrail_lint()_x000D_
-            line = self.get_log_data(1)_x000D_
-            self.assertTrue("Guardrail , failed Linting." in str(line))_x000D_
-            assert exit_mock_x000D_
-        self.assertTrue(mock_subproc_call.called)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_guardrail_mutation(self, mock_subproc_call):_x000D_
-        """Function to test guardrail_mutation method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        guardails_obj.parse_mutmut_report_xml = Mock()_x000D_
-        guardails_obj.parse_mutmut_report_xml.return_value = None_x000D_
-        mock_subproc_call.return_value = False_x000D_
-        guardails_obj.guardrail_mutation()_x000D_
-        self.assertTrue(mock_subproc_call.called)_x000D_
-        line = self.get_log_data(1)_x000D_
-        self.assertTrue("Guardrail task, passed Mutation testing report generation." in line)_x000D_
-        mock_subproc_call.return_value = True_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            guardails_obj.guardrail_mutation()_x000D_
-            line = self.get_log_data(1)_x000D_
-            self.assertTrue("Guardrail task, failed Mutation testing " in line)_x000D_
-            assert exit_mock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_guardrail_test(self):_x000D_
-        """Function to test guardrail_test method"""_x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_test")_x000D_
-        self.assertTrue("Guardrail task, passed Test execution and coverage generation" in line_1)_x000D_
-        val = r'mypython -m pytest C:\Projects\PythonRepo\python_sample\FunctionDefExtractor' \_x000D_
-              r' --cov-config=C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\.coveragerc ' \_x000D_
-              r'--cov-report "html" --cov=C:\Projects\PythonRepo\python_sample' \_x000D_
-              r'\FunctionDefExtractor\functiondefextractor'_x000D_
-        self.assertTrue(str(val) in line_2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_guardrail_test_fail(self):_x000D_
-        """Function to test guardrail_test_fail method"""_x000D_
-        line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_test")_x000D_
-        self.assertTrue("Guardrail task, failed Test execution and coverage generation" in line_1)_x000D_
-        val = r'mypython -m pytest C:\Projects\PythonRepo\python_sample\FunctionDefExtractor ' \_x000D_
-              r'--cov-config=C:\Projects\PythonRepo\python_sample\FunctionDefExtractor\.coveragerc ' \_x000D_
-              r'--cov-report "html" --cov=C:\Projects\PythonRepo\python_sample' \_x000D_
-              r'\FunctionDefExtractor\functiondefextractor'_x000D_
-        self.assertTrue(str(val) in line_2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_list_to_str_folders(self):_x000D_
-        """Function to test list_to_str_folders method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        self.stub_globals(guardails_obj)_x000D_
-        self.assertEqual(guardails_obj.list_to_str_folders(), "abc test")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_mov_cov_report(self, mock_subproc_call, mock_shut_rmtr, mock_shut_mov):_x000D_
-        """Function to test mov_cov_report method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        process_sub_mock = mock.Mock()_x000D_
-        patcher_exist = mock.patch('os.path.exists')_x000D_
-        mock_thing = patcher_exist.start()_x000D_
-        mock_thing.return_value = True_x000D_
-        patcher_isdir = mock.patch('os.path.isdir')_x000D_
-        mock_thing_isdir = patcher_isdir.start()_x000D_
-        mock_thing_isdir.return_value = True_x000D_
-        mock_subproc_call.return_value = process_sub_mock_x000D_
-        mock_shut_rmtr.return_value = process_sub_mock_x000D_
-        mock_shut_mov.return_value = process_sub_mock_x000D_
-        guardails_obj.validate_return = self.stub_validate_return_x000D_
-        guardails_obj.mov_cov_report()_x000D_
-        self.assertTrue(mock_subproc_call.called)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_orchestrate_guardrails(self):_x000D_
-        """Function to test orchestrate_guardrails method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        guardails_obj.check_report_dir = Mock()_x000D_
-        guardails_obj.mov_cov_report = Mock()_x000D_
-        guardails_obj.mov_cov_report.return_value = True_x000D_
-        self.assertTrue(guardails_obj.mov_cov_report.return_value)_x000D_
-        guardails_obj.guardrail_lint = Mock()_x000D_
-        guardails_obj.guardrail_lint.return_value = True_x000D_
-        self.assertTrue(guardails_obj.guardrail_lint.return_value)_x000D_
-        guardails_obj.guardrail_jscpd = Mock()_x000D_
-        guardails_obj.guardrail_jscpd.return_value = True_x000D_
-        self.assertTrue(guardails_obj.guardrail_jscpd.return_value)_x000D_
-        guardails_obj.guardrail_test = Mock()_x000D_
-        guardails_obj.guardrail_test.return_value = True_x000D_
-        self.assertTrue(guardails_obj.guardrail_test.return_value)_x000D_
-        guardails_obj.guardrail_coverage = Mock()_x000D_
-        guardails_obj.guardrail_coverage.return_value = True_x000D_
-        self.assertTrue(guardails_obj.guardrail_coverage.return_value)_x000D_
-        guardails_obj.guardrail_mutation = Mock()_x000D_
-        guardails_obj.guardrail_mutation.return_value = True_x000D_
-        self.assertTrue(guardails_obj.guardrail_mutation.return_value)_x000D_
-        guardails_obj.guardrail_deadcode = Mock()_x000D_
-        guardails_obj.guardrail_deadcode.return_value = True_x000D_
-        self.assertTrue(guardails_obj.guardrail_deadcode.return_value)_x000D_
-        guardails_obj.guardrail_cyclomatic_complexity = Mock()_x000D_
-        guardails_obj.guardrail_cyclomatic_complexity.return_value = True_x000D_
-        self.assertTrue(guardails_obj.guardrail_cyclomatic_complexity.return_value)_x000D_
-        guardails_obj.orchestrate_guardrails()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_parse_cyclo_report_xml(self):_x000D_
-        """Function to test parse_cyclo_report_xml method"""_x000D_
-        file_name = self.get_file_name("test_resource", "CC.xml")_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        guardails_obj.get_all_func_cnn = Mock()_x000D_
-        guardails_obj.get_all_func_cnn.return_value = self.stub_get_all_func_cnn_x000D_
-        assert guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
-        file_name = self.get_file_name("test_resourc", "CC.xml")_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
-            line = self.get_log_data(1)_x000D_
-            self.assertTrue("cc.xml report file path" in line)_x000D_
-            file_name = self.get_file_name("test_resource", "CC_test.xml")_x000D_
-            guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
-            file_name = self.get_file_name("test_resource", "CC_test_None.xml")_x000D_
-            guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
-            line = self.get_log_data(1)_x000D_
-            self.assertTrue("tags required are not found in cc.xml report file path" in line)_x000D_
-            assert exit_mock.called</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_parse_jscpd_report_json(self):_x000D_
-        """Function to test parse_jscpd_report_json method"""_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        file_name = self.get_file_name("test_resource", "jscpd-report.json")_x000D_
-        guardails_obj.parse_jscpd_report_json(5, file_name)_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            guardails_obj.parse_jscpd_report_json(0, file_name)_x000D_
-            file_name = self.get_file_name("test_resource", "jscpd-report_test.json")_x000D_
-            guardails_obj.parse_jscpd_report_json(0, file_name)_x000D_
-            file_name = self.get_file_name("test_resource", "jscpd-report_test _error.json")_x000D_
-            guardails_obj.parse_jscpd_report_json(0, file_name)_x000D_
-            assert exit_mock.called_x000D_
-            line = self.get_log_data(3)_x000D_
-            self.assertTrue("Guardrail gating, failed jscpd." in line)_x000D_
-            line = self.get_log_data(4)_x000D_
-            self.assertTrue("Guardrail gating passed jscpd" in line)_x000D_
-            line = self.get_log_data(2)_x000D_
-            self.assertTrue("jscpd report not correctly generated" in line)_x000D_
-            line = self.get_log_data(1)_x000D_
-            self.assertTrue("jscpd report not generated" in line)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_parse_mutmut_report_xml(self):_x000D_
-        """Function to test parse_mutmut_report_xml method"""_x000D_
-        file_name = self.get_file_name("test_resource", "mutmut.xml")_x000D_
-        guardails_obj = self.get_guardrails_obj()_x000D_
-        guardails_obj.parse_mutmut_report_xml(50, file_name)_x000D_
-        line = self.get_log_data(1)_x000D_
-        self.assertTrue("Guardrail gating, passed mutation" in str(line))_x000D_
-        file_name = self.get_file_name("test_resourc", "mutmut.xml")_x000D_
-        with patch('sys.exit') as exit_mock:_x000D_
-            guardails_obj.parse_mutmut_report_xml(50, file_name)_x000D_
-            assert exit_mock.called_x000D_
-            line = self.get_log_data(1)_x000D_
-            self.assertTrue("mutmut.xml report file path cound not be found" in line)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    def test_validate_return(self):_x000D_
-        """Function to test validate_return method"""_x000D_
-        list_test = [[1, "test", True, "Guardrail , failed test."], [0, "test", False, "Guardrail task, passed test."]]_x000D_
-        for i, _ in enumerate(list_test):_x000D_
-            assert self.get_validate_return(list_test[i][0], list_test[i][1], list_test[i][2]).strip() \_x000D_
-                   == list_test[i][3]</t>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_call_subprocess_error</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_call_subprocess_noerror</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_check_pass_fail_success</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_check_report_dir</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_file_exists_exit</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_get_all_func_cnn</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_get_index_cnn</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_coverage</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_coverage_fail</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_cyclomatic_complexity</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_deadcode</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_deadcode_fail</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_jscpd</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_jscpd_fail</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_lint</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_mutation</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_test</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_test_fail</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_list_to_str_folders</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_mov_cov_report</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_orchestrate_guardrails</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_parse_cyclo_report_xml</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_parse_jscpd_report_json</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_parse_mutmut_report_xml</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_validate_return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_call_subprocess_error(self):_x000D_
+"""Function to test call_subprocess_error method"""_x000D_
+guardails_obj = self.get_guardrails_obj()_x000D_
+try:_x000D_
+guardails_obj.call_subprocess("lshrs")_x000D_
+except KeyError:_x000D_
+pass_x000D_
+self.assertNotEqual(guardails_obj.call_subprocess("lshrs"), 0)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_call_subprocess_noerror(self):_x000D_
+"""Function to test call_subprocess_noerror method"""_x000D_
+guardails_obj = self.get_guardrails_obj()_x000D_
+ret_val = guardails_obj.call_subprocess("dir")_x000D_
+self.assertEqual(ret_val, 0)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_check_pass_fail_success(self):_x000D_
+"""Function to test check_pass_fail_success method"""_x000D_
+list_test = [[10, 100, 10, "Guardrail gating, passed mutation"],_x000D_
+[10, 100, 1, "Guardrail gating, failed mutation"],_x000D_
+[10, 0, 10, "Guardrail gating, failed: mutation test did not run"]]_x000D_
+for i, _ in enumerate(list_test):_x000D_
+self.assertTrue(list_test[i][3] in self.get_check_pass_fail_status(list_test[i][0],_x000D_
+list_test[i][1], list_test[i][2]))_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_check_report_dir(self, mock_path_exists, mock_mkdir):_x000D_
+"""Function to test check_report_dir method"""_x000D_
+guardails_obj = self.get_guardrails_obj()_x000D_
+mock_path_exists.return_value = True_x000D_
+mock_mkdir.return_value = False_x000D_
+guardails_obj.check_report_dir()_x000D_
+self.assertTrue(mock_mkdir.called)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_file_exists_exit(self):  # pylint: disable=R0201_x000D_
+"""Function to test file_exists_exit method"""_x000D_
+with patch('sys.exit') as exit_mock:_x000D_
+Guardails.file_exists("abc")_x000D_
+assert exit_mock.called_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_get_all_func_cnn(self):_x000D_
+"""Function to test get_all_func_cnn method"""_x000D_
+file_name = self.get_file_name("test_resource", "CC.xml")_x000D_
+guardails_obj = self.get_guardrails_obj()_x000D_
+guardails_obj.get_index_cnn = Mock()_x000D_
+guardails_obj.get_index_cnn.return_value = int(2)_x000D_
+expec_data = {_x000D_
+'get_file_names(...) at core_extractor.py:11': '3',_x000D_
+'get_function_names(...) at core_extractor.py:28': '7'}_x000D_
+root = ETree.parse(file_name).getroot()_x000D_
+for functions in root.iter('measure'):_x000D_
+if functions.attrib['type'] == "Function":_x000D_
+assert expec_data == guardails_obj.get_all_func_cnn(functions)_x000D_
+file_name = self.get_file_name("test_resource", "CC_test_Func.xml")_x000D_
+root = ETree.parse(file_name).getroot()_x000D_
+with patch('sys.exit') as exit_mock:_x000D_
+for functions in root.iter('measure'):_x000D_
+if functions.attrib['type'] == "Function":_x000D_
+guardails_obj.get_all_func_cnn(functions)_x000D_
+file_name = self.get_file_name("test_resource", "CC_test_func_empty.xml")_x000D_
+root = ETree.parse(file_name).getroot()_x000D_
+for functions in root.iter('measure'):_x000D_
+if functions.attrib['type'] == "Function":_x000D_
+guardails_obj.get_all_func_cnn(functions)_x000D_
+assert exit_mock.called_x000D_
+line = self.get_log_data(2)_x000D_
+self.assertTrue(_x000D_
+"Guardrail unable to find the tags item/value/name in the report " in line)_x000D_
+line = self.get_log_data(1)_x000D_
+self.assertTrue(_x000D_
+"Guardrail unable to find the tags item/value/name in the report file " in line)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_get_index_cnn(self):_x000D_
+"""Function to test get_index_cnn method"""_x000D_
+file_name = self.get_file_name("test_resource", "CC.xml")_x000D_
+guardails_obj = self.get_guardrails_obj()_x000D_
+root = ETree.parse(file_name).getroot()_x000D_
+for functions in root.iter('measure'):_x000D_
+if functions.attrib['type'] == "Function":_x000D_
+assert guardails_obj.get_index_cnn(functions) == 2_x000D_
+file_name = self.get_file_name("test_resource", "CC_test_func_empty.xml")_x000D_
+root = ETree.parse(file_name).getroot()_x000D_
+with patch('sys.exit') as exit_mock:_x000D_
+for functions in root.iter('measure'):_x000D_
+if functions.attrib['type'] == "Function":_x000D_
+guardails_obj.get_index_cnn(functions)_x000D_
+assert exit_mock.called_x000D_
+line = self.get_log_data(1)_x000D_
+self.assertTrue("Guardrail unable to find the tag CCN in the report " in line)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_guardrail_coverage(self):_x000D_
+"""Function to test guardrail_coverage method"""_x000D_
+line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_coverage")_x000D_
+print(line_2)_x000D_
+self.assertTrue("Guardrail , passed Coverage threshold" in line_1)_x000D_
+val = r'mypython -m coverage report --fail-under=85'_x000D_
+self.assertTrue(str(val) in line_2)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_guardrail_coverage_fail(self):_x000D_
+"""Function to test guardrail_coverage_fail method"""_x000D_
+line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_coverage")_x000D_
+print(line_2)_x000D_
+self.assertTrue("Guardrail , failed Coverage threshold" in line_1)_x000D_
+val = r'mypython -m coverage report --fail-under=85'_x000D_
+self.assertTrue(str(val) in line_2)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_guardrail_cyclomatic_complexity(self, mock_subproc_call):_x000D_
+"""Function to test guardrail_cyclomatic_complexity method"""_x000D_
+guardails_obj = self.get_guardrails_obj()_x000D_
+guardails_obj.parse_cyclo_report_xml = Mock()_x000D_
+guardails_obj.parse_cyclo_report_xml.return_value = {_x000D_
+'get_file_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
+'\\functiondefextractor\\core_extractor.py:11': '3',_x000D_
+'get_function_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
+'\\functiondefextractor\\core_extractor.py:28': '7'}_x000D_
+mock_subproc_call.return_value = False_x000D_
+guardails_obj.guardrail_cyclomatic_complexity()_x000D_
+self.assertTrue(mock_subproc_call.called)_x000D_
+line = self.get_log_data(1)_x000D_
+self.assertTrue("Guardrail , passed Cyclomatic complexity" in line)_x000D_
+mock_subproc_call.return_value = True_x000D_
+with patch('sys.exit') as exit_mock:_x000D_
+guardails_obj.guardrail_cyclomatic_complexity()_x000D_
+line = self.get_log_data(2)_x000D_
+self.assertTrue("Guardrail task, failed Cyclomating complexity generation" in line)_x000D_
+assert exit_mock_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_guardrail_deadcode(self):_x000D_
+"""Function to test guardrail_deadcode method"""_x000D_
+import os_x000D_
+line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_deadcode")_x000D_
+self.assertTrue("Guardrail , passed Dead code detection" in line_1)_x000D_
+val = r'mypython -m vulture functiondefextractor ' \_x000D_
+r'test  --exclude PythonRepo' \_x000D_
+r'test --min-confidence 100 &gt;PythonRepo' \_x000D_
+r'\REPORT\deadcode.txt'_x000D_
+self.assertTrue(val.replace("\\", os.sep) in line_2.replace('\\', os.sep).replace("/", os.sep))_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_guardrail_deadcode_fail(self):_x000D_
+"""Function to test guardrail_deadcode_fail method"""_x000D_
+import os_x000D_
+line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_deadcode")_x000D_
+self.assertTrue("Guardrail , failed Dead code detection" in line_1)_x000D_
+val = r'mypython -m vulture FunctionDefExtractor' \_x000D_
+r'test  --exclude' \_x000D_
+r'test --min-confidence 100 &gt;C:\Projects' \_x000D_
+r'deadcode.txt'_x000D_
+self.assertTrue(val.replace('\\', os.sep) in line_2.replace('\\', os.sep).replace("/", os.sep))_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_guardrail_jscpd(self):_x000D_
+"""Function to test guardrail_jscpd method"""_x000D_
+line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_jscpd")_x000D_
+self.assertTrue("Guardrail task, passed Copy Paste Detection report generation" in line_1)_x000D_
+val = r'command for sub process:jscpd --min-tokens 20  --ignore test  --max-lines 100000 --max-size 100mb --reporters "json,html"' \_x000D_
+r' --mode "strict" --format "python, java" -o'_x000D_
+self.assertTrue(str(val) in line_2)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_guardrail_jscpd_fail(self):_x000D_
+"""Function to test guardrail_jscpd_fail method"""_x000D_
+line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_jscpd")_x000D_
+self.assertTrue("Guardrail task, failed Copy Paste Detection report generation" in line_1)_x000D_
+val = r'command for sub process:jscpd --min-tokens 20  --ignore python_sample' \_x000D_
+r'test  --max-lines 100000 --max-size 100mb --reporters "json,html" --mode ' \_x000D_
+r'"strict" --format "python, java" -o'_x000D_
+self.assertTrue(str(val) in line_2)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_guardrail_lint(self, mock_subproc_call):_x000D_
+"""Function to test guardrail_lint method"""_x000D_
+import os_x000D_
+guardails_obj = self.get_guardrails_obj()_x000D_
+global_obj = GuardrailGlobals()_x000D_
+mock_subproc_call.return_value = False_x000D_
+guardails_obj.lint_ignore = self.get_file_name("test_resource", "pylint_ignore.txt")_x000D_
+guardails_obj.generate_files_lint = MagicMock(return_value=" ")_x000D_
+global_obj.report_folder = os.getcwd()_x000D_
+guardails_obj.guardrail_lint()_x000D_
+self.assertTrue(mock_subproc_call.called)_x000D_
+line = self.get_log_data(1)_x000D_
+self.assertTrue("Guardrail , passed Linting." in str(line))_x000D_
+mock_subproc_call.return_value = True_x000D_
+with patch('sys.exit') as exit_mock:_x000D_
+guardails_obj.guardrail_lint()_x000D_
+line = self.get_log_data(1)_x000D_
+self.assertTrue("Guardrail , failed Linting." in str(line))_x000D_
+assert exit_mock_x000D_
+self.assertTrue(mock_subproc_call.called)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_guardrail_mutation(self, mock_subproc_call):_x000D_
+"""Function to test guardrail_mutation method"""_x000D_
+guardails_obj = self.get_guardrails_obj()_x000D_
+guardails_obj.parse_mutmut_report_xml = Mock()_x000D_
+guardails_obj.parse_mutmut_report_xml.return_value = None_x000D_
+mock_subproc_call.return_value = False_x000D_
+guardails_obj.guardrail_mutation()_x000D_
+self.assertTrue(mock_subproc_call.called)_x000D_
+line = self.get_log_data(1)_x000D_
+self.assertTrue("Guardrail task, passed Mutation testing report generation." in line)_x000D_
+mock_subproc_call.return_value = True_x000D_
+with patch('sys.exit') as exit_mock:_x000D_
+guardails_obj.guardrail_mutation()_x000D_
+line = self.get_log_data(1)_x000D_
+self.assertTrue("Guardrail task, failed Mutation testing " in line)_x000D_
+assert exit_mock_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_guardrail_test(self):_x000D_
+"""Function to test guardrail_test method"""_x000D_
+line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_test")_x000D_
+self.assertTrue("Guardrail task, passed Test execution and coverage generation" in line_1)_x000D_
+val = r'mypython -m pytest FunctionDefExtractor' \_x000D_
+r' --cov-config=.coveragerc ' \_x000D_
+r'--cov-report "html" --cov=python_sample' \_x000D_
+r'\FunctionDefExtractor\functiondefextractor'_x000D_
+self.assertTrue(str(val) in line_2)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_guardrail_test_fail(self):_x000D_
+"""Function to test guardrail_test_fail method"""_x000D_
+line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_test")_x000D_
+self.assertTrue("Guardrail task, failed Test execution and coverage generation" in line_1)_x000D_
+val = r'mypython -m pytest FunctionDefExtractor ' \_x000D_
+r'--cov-config=.coveragerc ' \_x000D_
+r'--cov-report "html" --cov=python_sample' \_x000D_
+r'functiondefextractor'_x000D_
+self.assertTrue(str(val) in line_2)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_list_to_str_folders(self):_x000D_
+"""Function to test list_to_str_folders method"""_x000D_
+guardails_obj = self.get_guardrails_obj()_x000D_
+self.stub_globals(guardails_obj)_x000D_
+self.assertEqual(guardails_obj.list_to_str_folders(), "abc test")_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_mov_cov_report(self, mock_subproc_call, mock_shut_rmtr, mock_shut_mov):_x000D_
+"""Function to test mov_cov_report method"""_x000D_
+guardails_obj = self.get_guardrails_obj()_x000D_
+process_sub_mock = mock.Mock()_x000D_
+patcher_exist = mock.patch('os.path.exists')_x000D_
+mock_thing = patcher_exist.start()_x000D_
+mock_thing.return_value = True_x000D_
+patcher_isdir = mock.patch('os.path.isdir')_x000D_
+mock_thing_isdir = patcher_isdir.start()_x000D_
+mock_thing_isdir.return_value = True_x000D_
+mock_subproc_call.return_value = process_sub_mock_x000D_
+mock_shut_rmtr.return_value = process_sub_mock_x000D_
+mock_shut_mov.return_value = process_sub_mock_x000D_
+guardails_obj.validate_return = self.stub_validate_return_x000D_
+guardails_obj.mov_cov_report()_x000D_
+self.assertTrue(mock_subproc_call.called)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_orchestrate_guardrails(self):_x000D_
+"""Function to test orchestrate_guardrails method"""_x000D_
+guardails_obj = self.get_guardrails_obj()_x000D_
+guardails_obj.check_report_dir = Mock()_x000D_
+guardails_obj.mov_cov_report = Mock()_x000D_
+guardails_obj.mov_cov_report.return_value = True_x000D_
+self.assertTrue(guardails_obj.mov_cov_report.return_value)_x000D_
+guardails_obj.guardrail_lint = Mock()_x000D_
+guardails_obj.guardrail_lint.return_value = True_x000D_
+self.assertTrue(guardails_obj.guardrail_lint.return_value)_x000D_
+guardails_obj.guardrail_jscpd = Mock()_x000D_
+guardails_obj.guardrail_jscpd.return_value = True_x000D_
+self.assertTrue(guardails_obj.guardrail_jscpd.return_value)_x000D_
+guardails_obj.guardrail_test = Mock()_x000D_
+guardails_obj.guardrail_test.return_value = True_x000D_
+self.assertTrue(guardails_obj.guardrail_test.return_value)_x000D_
+guardails_obj.guardrail_coverage = Mock()_x000D_
+guardails_obj.guardrail_coverage.return_value = True_x000D_
+self.assertTrue(guardails_obj.guardrail_coverage.return_value)_x000D_
+guardails_obj.guardrail_mutation = Mock()_x000D_
+guardails_obj.guardrail_mutation.return_value = True_x000D_
+self.assertTrue(guardails_obj.guardrail_mutation.return_value)_x000D_
+guardails_obj.guardrail_deadcode = Mock()_x000D_
+guardails_obj.guardrail_deadcode.return_value = True_x000D_
+self.assertTrue(guardails_obj.guardrail_deadcode.return_value)_x000D_
+guardails_obj.guardrail_cyclomatic_complexity = Mock()_x000D_
+guardails_obj.guardrail_cyclomatic_complexity.return_value = True_x000D_
+self.assertTrue(guardails_obj.guardrail_cyclomatic_complexity.return_value)_x000D_
+guardails_obj.orchestrate_guardrails()_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_parse_cyclo_report_xml(self):_x000D_
+"""Function to test parse_cyclo_report_xml method"""_x000D_
+file_name = self.get_file_name("test_resource", "CC.xml")_x000D_
+guardails_obj = self.get_guardrails_obj()_x000D_
+guardails_obj.get_all_func_cnn = Mock()_x000D_
+guardails_obj.get_all_func_cnn.return_value = self.stub_get_all_func_cnn_x000D_
+assert guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
+file_name = self.get_file_name("test_resourc", "CC.xml")_x000D_
+with patch('sys.exit') as exit_mock:_x000D_
+guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
+line = self.get_log_data(1)_x000D_
+self.assertTrue("cc.xml report file path" in line)_x000D_
+file_name = self.get_file_name("test_resource", "CC_test.xml")_x000D_
+guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
+file_name = self.get_file_name("test_resource", "CC_test_None.xml")_x000D_
+guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
+line = self.get_log_data(1)_x000D_
+self.assertTrue("tags required are not found in cc.xml report file path" in line)_x000D_
+assert exit_mock.called_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_parse_jscpd_report_json(self):_x000D_
+"""Function to test parse_jscpd_report_json method"""_x000D_
+guardails_obj = self.get_guardrails_obj()_x000D_
+file_name = self.get_file_name("test_resource", "jscpd-report.json")_x000D_
+guardails_obj.parse_jscpd_report_json(5, file_name)_x000D_
+with patch('sys.exit') as exit_mock:_x000D_
+guardails_obj.parse_jscpd_report_json(0, file_name)_x000D_
+file_name = self.get_file_name("test_resource", "jscpd-report_test.json")_x000D_
+guardails_obj.parse_jscpd_report_json(0, file_name)_x000D_
+file_name = self.get_file_name("test_resource", "jscpd-report_test _error.json")_x000D_
+guardails_obj.parse_jscpd_report_json(0, file_name)_x000D_
+assert exit_mock.called_x000D_
+line = self.get_log_data(3)_x000D_
+self.assertTrue("Guardrail gating, failed jscpd." in line)_x000D_
+line = self.get_log_data(4)_x000D_
+self.assertTrue("Guardrail gating passed jscpd" in line)_x000D_
+line = self.get_log_data(2)_x000D_
+self.assertTrue("jscpd report not correctly generated" in line)_x000D_
+line = self.get_log_data(1)_x000D_
+self.assertTrue("jscpd report not generated" in line)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_parse_mutmut_report_xml(self):_x000D_
+"""Function to test parse_mutmut_report_xml method"""_x000D_
+file_name = self.get_file_name("test_resource", "mutmut.xml")_x000D_
+guardails_obj = self.get_guardrails_obj()_x000D_
+guardails_obj.parse_mutmut_report_xml(50, file_name)_x000D_
+line = self.get_log_data(1)_x000D_
+self.assertTrue("Guardrail gating, passed mutation" in str(line))_x000D_
+file_name = self.get_file_name("test_resourc", "mutmut.xml")_x000D_
+with patch('sys.exit') as exit_mock:_x000D_
+guardails_obj.parse_mutmut_report_xml(50, file_name)_x000D_
+assert exit_mock.called_x000D_
+line = self.get_log_data(1)_x000D_
+self.assertTrue("mutmut.xml report file path cound not be found" in line)_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_validate_return(self):_x000D_
+"""Function to test validate_return method"""_x000D_
+list_test = [[1, "test", True, "Guardrail , failed test."], [0, "test", False, "Guardrail task, passed test."]]_x000D_
+for i, _ in enumerate(list_test):_x000D_
+assert self.get_validate_return(list_test[i][0], list_test[i][1], list_test[i][2]).strip() \_x000D_
+== list_test[i][3]_x000D_
+</t>
   </si>
 </sst>
 </file>

--- a/test_resource/codeextractor_T_T.xlsx
+++ b/test_resource/codeextractor_T_T.xlsx
@@ -22,465 +22,465 @@
     <t>Uniq ID</t>
   </si>
   <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_call_subprocess_error</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_call_subprocess_noerror</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_check_pass_fail_success</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_check_report_dir</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_file_exists_exit</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_get_all_func_cnn</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_get_index_cnn</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_coverage</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_coverage_fail</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_cyclomatic_complexity</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_deadcode</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_deadcode_fail</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_jscpd</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_jscpd_fail</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_lint</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_mutation</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_test</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_test_fail</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_list_to_str_folders</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_mov_cov_report</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_orchestrate_guardrails</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_parse_cyclo_report_xml</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_parse_jscpd_report_json</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_parse_mutmut_report_xml</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\Python_Repos\funcSSH\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_validate_return</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def test_call_subprocess_error(self):_x000D_
-"""Function to test call_subprocess_error method"""_x000D_
-guardails_obj = self.get_guardrails_obj()_x000D_
-try:_x000D_
-guardails_obj.call_subprocess("lshrs")_x000D_
-except KeyError:_x000D_
-pass_x000D_
-self.assertNotEqual(guardails_obj.call_subprocess("lshrs"), 0)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def test_call_subprocess_noerror(self):_x000D_
-"""Function to test call_subprocess_noerror method"""_x000D_
-guardails_obj = self.get_guardrails_obj()_x000D_
-ret_val = guardails_obj.call_subprocess("dir")_x000D_
-self.assertEqual(ret_val, 0)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def test_check_pass_fail_success(self):_x000D_
-"""Function to test check_pass_fail_success method"""_x000D_
-list_test = [[10, 100, 10, "Guardrail gating, passed mutation"],_x000D_
-[10, 100, 1, "Guardrail gating, failed mutation"],_x000D_
-[10, 0, 10, "Guardrail gating, failed: mutation test did not run"]]_x000D_
-for i, _ in enumerate(list_test):_x000D_
-self.assertTrue(list_test[i][3] in self.get_check_pass_fail_status(list_test[i][0],_x000D_
-list_test[i][1], list_test[i][2]))_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def test_check_report_dir(self, mock_path_exists, mock_mkdir):_x000D_
-"""Function to test check_report_dir method"""_x000D_
-guardails_obj = self.get_guardrails_obj()_x000D_
-mock_path_exists.return_value = True_x000D_
-mock_mkdir.return_value = False_x000D_
-guardails_obj.check_report_dir()_x000D_
-self.assertTrue(mock_mkdir.called)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def test_file_exists_exit(self):  # pylint: disable=R0201_x000D_
-"""Function to test file_exists_exit method"""_x000D_
-with patch('sys.exit') as exit_mock:_x000D_
-Guardails.file_exists("abc")_x000D_
-assert exit_mock.called_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def test_get_all_func_cnn(self):_x000D_
-"""Function to test get_all_func_cnn method"""_x000D_
-file_name = self.get_file_name("test_resource", "CC.xml")_x000D_
-guardails_obj = self.get_guardrails_obj()_x000D_
-guardails_obj.get_index_cnn = Mock()_x000D_
-guardails_obj.get_index_cnn.return_value = int(2)_x000D_
-expec_data = {_x000D_
-'get_file_names(...) at core_extractor.py:11': '3',_x000D_
-'get_function_names(...) at core_extractor.py:28': '7'}_x000D_
-root = ETree.parse(file_name).getroot()_x000D_
-for functions in root.iter('measure'):_x000D_
-if functions.attrib['type'] == "Function":_x000D_
-assert expec_data == guardails_obj.get_all_func_cnn(functions)_x000D_
-file_name = self.get_file_name("test_resource", "CC_test_Func.xml")_x000D_
-root = ETree.parse(file_name).getroot()_x000D_
-with patch('sys.exit') as exit_mock:_x000D_
-for functions in root.iter('measure'):_x000D_
-if functions.attrib['type'] == "Function":_x000D_
-guardails_obj.get_all_func_cnn(functions)_x000D_
-file_name = self.get_file_name("test_resource", "CC_test_func_empty.xml")_x000D_
-root = ETree.parse(file_name).getroot()_x000D_
-for functions in root.iter('measure'):_x000D_
-if functions.attrib['type'] == "Function":_x000D_
-guardails_obj.get_all_func_cnn(functions)_x000D_
-assert exit_mock.called_x000D_
-line = self.get_log_data(2)_x000D_
-self.assertTrue(_x000D_
-"Guardrail unable to find the tags item/value/name in the report " in line)_x000D_
-line = self.get_log_data(1)_x000D_
-self.assertTrue(_x000D_
-"Guardrail unable to find the tags item/value/name in the report file " in line)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def test_get_index_cnn(self):_x000D_
-"""Function to test get_index_cnn method"""_x000D_
-file_name = self.get_file_name("test_resource", "CC.xml")_x000D_
-guardails_obj = self.get_guardrails_obj()_x000D_
-root = ETree.parse(file_name).getroot()_x000D_
-for functions in root.iter('measure'):_x000D_
-if functions.attrib['type'] == "Function":_x000D_
-assert guardails_obj.get_index_cnn(functions) == 2_x000D_
-file_name = self.get_file_name("test_resource", "CC_test_func_empty.xml")_x000D_
-root = ETree.parse(file_name).getroot()_x000D_
-with patch('sys.exit') as exit_mock:_x000D_
-for functions in root.iter('measure'):_x000D_
-if functions.attrib['type'] == "Function":_x000D_
-guardails_obj.get_index_cnn(functions)_x000D_
-assert exit_mock.called_x000D_
-line = self.get_log_data(1)_x000D_
-self.assertTrue("Guardrail unable to find the tag CCN in the report " in line)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def test_guardrail_coverage(self):_x000D_
-"""Function to test guardrail_coverage method"""_x000D_
-line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_coverage")_x000D_
-print(line_2)_x000D_
-self.assertTrue("Guardrail , passed Coverage threshold" in line_1)_x000D_
-val = r'mypython -m coverage report --fail-under=85'_x000D_
-self.assertTrue(str(val) in line_2)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def test_guardrail_coverage_fail(self):_x000D_
-"""Function to test guardrail_coverage_fail method"""_x000D_
-line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_coverage")_x000D_
-print(line_2)_x000D_
-self.assertTrue("Guardrail , failed Coverage threshold" in line_1)_x000D_
-val = r'mypython -m coverage report --fail-under=85'_x000D_
-self.assertTrue(str(val) in line_2)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def test_guardrail_cyclomatic_complexity(self, mock_subproc_call):_x000D_
-"""Function to test guardrail_cyclomatic_complexity method"""_x000D_
-guardails_obj = self.get_guardrails_obj()_x000D_
-guardails_obj.parse_cyclo_report_xml = Mock()_x000D_
-guardails_obj.parse_cyclo_report_xml.return_value = {_x000D_
-'get_file_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
-'\\functiondefextractor\\core_extractor.py:11': '3',_x000D_
-'get_function_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'_x000D_
-'\\functiondefextractor\\core_extractor.py:28': '7'}_x000D_
-mock_subproc_call.return_value = False_x000D_
-guardails_obj.guardrail_cyclomatic_complexity()_x000D_
-self.assertTrue(mock_subproc_call.called)_x000D_
-line = self.get_log_data(1)_x000D_
-self.assertTrue("Guardrail , passed Cyclomatic complexity" in line)_x000D_
-mock_subproc_call.return_value = True_x000D_
-with patch('sys.exit') as exit_mock:_x000D_
-guardails_obj.guardrail_cyclomatic_complexity()_x000D_
-line = self.get_log_data(2)_x000D_
-self.assertTrue("Guardrail task, failed Cyclomating complexity generation" in line)_x000D_
-assert exit_mock_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def test_guardrail_deadcode(self):_x000D_
-"""Function to test guardrail_deadcode method"""_x000D_
-import os_x000D_
-line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_deadcode")_x000D_
-self.assertTrue("Guardrail , passed Dead code detection" in line_1)_x000D_
-val = r'mypython -m vulture functiondefextractor ' \_x000D_
-r'test  --exclude PythonRepo' \_x000D_
-r'test --min-confidence 100 &gt;PythonRepo' \_x000D_
-r'\REPORT\deadcode.txt'_x000D_
-self.assertTrue(val.replace("\\", os.sep) in line_2.replace('\\', os.sep).replace("/", os.sep))_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def test_guardrail_deadcode_fail(self):_x000D_
-"""Function to test guardrail_deadcode_fail method"""_x000D_
-import os_x000D_
-line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_deadcode")_x000D_
-self.assertTrue("Guardrail , failed Dead code detection" in line_1)_x000D_
-val = r'mypython -m vulture FunctionDefExtractor' \_x000D_
-r'test  --exclude' \_x000D_
-r'test --min-confidence 100 &gt;C:\Projects' \_x000D_
-r'deadcode.txt'_x000D_
-self.assertTrue(val.replace('\\', os.sep) in line_2.replace('\\', os.sep).replace("/", os.sep))_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def test_guardrail_jscpd(self):_x000D_
-"""Function to test guardrail_jscpd method"""_x000D_
-line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_jscpd")_x000D_
-self.assertTrue("Guardrail task, passed Copy Paste Detection report generation" in line_1)_x000D_
-val = r'command for sub process:jscpd --min-tokens 20  --ignore test  --max-lines 100000 --max-size 100mb --reporters "json,html"' \_x000D_
-r' --mode "strict" --format "python, java" -o'_x000D_
-self.assertTrue(str(val) in line_2)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def test_guardrail_jscpd_fail(self):_x000D_
-"""Function to test guardrail_jscpd_fail method"""_x000D_
-line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_jscpd")_x000D_
-self.assertTrue("Guardrail task, failed Copy Paste Detection report generation" in line_1)_x000D_
-val = r'command for sub process:jscpd --min-tokens 20  --ignore python_sample' \_x000D_
-r'test  --max-lines 100000 --max-size 100mb --reporters "json,html" --mode ' \_x000D_
-r'"strict" --format "python, java" -o'_x000D_
-self.assertTrue(str(val) in line_2)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def test_guardrail_lint(self, mock_subproc_call):_x000D_
-"""Function to test guardrail_lint method"""_x000D_
-import os_x000D_
-guardails_obj = self.get_guardrails_obj()_x000D_
-global_obj = GuardrailGlobals()_x000D_
-mock_subproc_call.return_value = False_x000D_
-guardails_obj.lint_ignore = self.get_file_name("test_resource", "pylint_ignore.txt")_x000D_
-guardails_obj.generate_files_lint = MagicMock(return_value=" ")_x000D_
-global_obj.report_folder = os.getcwd()_x000D_
-guardails_obj.guardrail_lint()_x000D_
-self.assertTrue(mock_subproc_call.called)_x000D_
-line = self.get_log_data(1)_x000D_
-self.assertTrue("Guardrail , passed Linting." in str(line))_x000D_
-mock_subproc_call.return_value = True_x000D_
-with patch('sys.exit') as exit_mock:_x000D_
-guardails_obj.guardrail_lint()_x000D_
-line = self.get_log_data(1)_x000D_
-self.assertTrue("Guardrail , failed Linting." in str(line))_x000D_
-assert exit_mock_x000D_
-self.assertTrue(mock_subproc_call.called)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def test_guardrail_mutation(self, mock_subproc_call):_x000D_
-"""Function to test guardrail_mutation method"""_x000D_
-guardails_obj = self.get_guardrails_obj()_x000D_
-guardails_obj.parse_mutmut_report_xml = Mock()_x000D_
-guardails_obj.parse_mutmut_report_xml.return_value = None_x000D_
-mock_subproc_call.return_value = False_x000D_
-guardails_obj.guardrail_mutation()_x000D_
-self.assertTrue(mock_subproc_call.called)_x000D_
-line = self.get_log_data(1)_x000D_
-self.assertTrue("Guardrail task, passed Mutation testing report generation." in line)_x000D_
-mock_subproc_call.return_value = True_x000D_
-with patch('sys.exit') as exit_mock:_x000D_
-guardails_obj.guardrail_mutation()_x000D_
-line = self.get_log_data(1)_x000D_
-self.assertTrue("Guardrail task, failed Mutation testing " in line)_x000D_
-assert exit_mock_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def test_guardrail_test(self):_x000D_
-"""Function to test guardrail_test method"""_x000D_
-line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_test")_x000D_
-self.assertTrue("Guardrail task, passed Test execution and coverage generation" in line_1)_x000D_
-val = r'mypython -m pytest FunctionDefExtractor' \_x000D_
-r' --cov-config=.coveragerc ' \_x000D_
-r'--cov-report "html" --cov=python_sample' \_x000D_
-r'\FunctionDefExtractor\functiondefextractor'_x000D_
-self.assertTrue(str(val) in line_2)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def test_guardrail_test_fail(self):_x000D_
-"""Function to test guardrail_test_fail method"""_x000D_
-line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_test")_x000D_
-self.assertTrue("Guardrail task, failed Test execution and coverage generation" in line_1)_x000D_
-val = r'mypython -m pytest FunctionDefExtractor ' \_x000D_
-r'--cov-config=.coveragerc ' \_x000D_
-r'--cov-report "html" --cov=python_sample' \_x000D_
-r'functiondefextractor'_x000D_
-self.assertTrue(str(val) in line_2)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def test_list_to_str_folders(self):_x000D_
-"""Function to test list_to_str_folders method"""_x000D_
-guardails_obj = self.get_guardrails_obj()_x000D_
-self.stub_globals(guardails_obj)_x000D_
-self.assertEqual(guardails_obj.list_to_str_folders(), "abc test")_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def test_mov_cov_report(self, mock_subproc_call, mock_shut_rmtr, mock_shut_mov):_x000D_
-"""Function to test mov_cov_report method"""_x000D_
-guardails_obj = self.get_guardrails_obj()_x000D_
-process_sub_mock = mock.Mock()_x000D_
-patcher_exist = mock.patch('os.path.exists')_x000D_
-mock_thing = patcher_exist.start()_x000D_
-mock_thing.return_value = True_x000D_
-patcher_isdir = mock.patch('os.path.isdir')_x000D_
-mock_thing_isdir = patcher_isdir.start()_x000D_
-mock_thing_isdir.return_value = True_x000D_
-mock_subproc_call.return_value = process_sub_mock_x000D_
-mock_shut_rmtr.return_value = process_sub_mock_x000D_
-mock_shut_mov.return_value = process_sub_mock_x000D_
-guardails_obj.validate_return = self.stub_validate_return_x000D_
-guardails_obj.mov_cov_report()_x000D_
-self.assertTrue(mock_subproc_call.called)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def test_orchestrate_guardrails(self):_x000D_
-"""Function to test orchestrate_guardrails method"""_x000D_
-guardails_obj = self.get_guardrails_obj()_x000D_
-guardails_obj.check_report_dir = Mock()_x000D_
-guardails_obj.mov_cov_report = Mock()_x000D_
-guardails_obj.mov_cov_report.return_value = True_x000D_
-self.assertTrue(guardails_obj.mov_cov_report.return_value)_x000D_
-guardails_obj.guardrail_lint = Mock()_x000D_
-guardails_obj.guardrail_lint.return_value = True_x000D_
-self.assertTrue(guardails_obj.guardrail_lint.return_value)_x000D_
-guardails_obj.guardrail_jscpd = Mock()_x000D_
-guardails_obj.guardrail_jscpd.return_value = True_x000D_
-self.assertTrue(guardails_obj.guardrail_jscpd.return_value)_x000D_
-guardails_obj.guardrail_test = Mock()_x000D_
-guardails_obj.guardrail_test.return_value = True_x000D_
-self.assertTrue(guardails_obj.guardrail_test.return_value)_x000D_
-guardails_obj.guardrail_coverage = Mock()_x000D_
-guardails_obj.guardrail_coverage.return_value = True_x000D_
-self.assertTrue(guardails_obj.guardrail_coverage.return_value)_x000D_
-guardails_obj.guardrail_mutation = Mock()_x000D_
-guardails_obj.guardrail_mutation.return_value = True_x000D_
-self.assertTrue(guardails_obj.guardrail_mutation.return_value)_x000D_
-guardails_obj.guardrail_deadcode = Mock()_x000D_
-guardails_obj.guardrail_deadcode.return_value = True_x000D_
-self.assertTrue(guardails_obj.guardrail_deadcode.return_value)_x000D_
-guardails_obj.guardrail_cyclomatic_complexity = Mock()_x000D_
-guardails_obj.guardrail_cyclomatic_complexity.return_value = True_x000D_
-self.assertTrue(guardails_obj.guardrail_cyclomatic_complexity.return_value)_x000D_
-guardails_obj.orchestrate_guardrails()_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def test_parse_cyclo_report_xml(self):_x000D_
-"""Function to test parse_cyclo_report_xml method"""_x000D_
-file_name = self.get_file_name("test_resource", "CC.xml")_x000D_
-guardails_obj = self.get_guardrails_obj()_x000D_
-guardails_obj.get_all_func_cnn = Mock()_x000D_
-guardails_obj.get_all_func_cnn.return_value = self.stub_get_all_func_cnn_x000D_
-assert guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
-file_name = self.get_file_name("test_resourc", "CC.xml")_x000D_
-with patch('sys.exit') as exit_mock:_x000D_
-guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
-line = self.get_log_data(1)_x000D_
-self.assertTrue("cc.xml report file path" in line)_x000D_
-file_name = self.get_file_name("test_resource", "CC_test.xml")_x000D_
-guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
-file_name = self.get_file_name("test_resource", "CC_test_None.xml")_x000D_
-guardails_obj.parse_cyclo_report_xml(file_name)_x000D_
-line = self.get_log_data(1)_x000D_
-self.assertTrue("tags required are not found in cc.xml report file path" in line)_x000D_
-assert exit_mock.called_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def test_parse_jscpd_report_json(self):_x000D_
-"""Function to test parse_jscpd_report_json method"""_x000D_
-guardails_obj = self.get_guardrails_obj()_x000D_
-file_name = self.get_file_name("test_resource", "jscpd-report.json")_x000D_
-guardails_obj.parse_jscpd_report_json(5, file_name)_x000D_
-with patch('sys.exit') as exit_mock:_x000D_
-guardails_obj.parse_jscpd_report_json(0, file_name)_x000D_
-file_name = self.get_file_name("test_resource", "jscpd-report_test.json")_x000D_
-guardails_obj.parse_jscpd_report_json(0, file_name)_x000D_
-file_name = self.get_file_name("test_resource", "jscpd-report_test _error.json")_x000D_
-guardails_obj.parse_jscpd_report_json(0, file_name)_x000D_
-assert exit_mock.called_x000D_
-line = self.get_log_data(3)_x000D_
-self.assertTrue("Guardrail gating, failed jscpd." in line)_x000D_
-line = self.get_log_data(4)_x000D_
-self.assertTrue("Guardrail gating passed jscpd" in line)_x000D_
-line = self.get_log_data(2)_x000D_
-self.assertTrue("jscpd report not correctly generated" in line)_x000D_
-line = self.get_log_data(1)_x000D_
-self.assertTrue("jscpd report not generated" in line)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def test_parse_mutmut_report_xml(self):_x000D_
-"""Function to test parse_mutmut_report_xml method"""_x000D_
-file_name = self.get_file_name("test_resource", "mutmut.xml")_x000D_
-guardails_obj = self.get_guardrails_obj()_x000D_
-guardails_obj.parse_mutmut_report_xml(50, file_name)_x000D_
-line = self.get_log_data(1)_x000D_
-self.assertTrue("Guardrail gating, passed mutation" in str(line))_x000D_
-file_name = self.get_file_name("test_resourc", "mutmut.xml")_x000D_
-with patch('sys.exit') as exit_mock:_x000D_
-guardails_obj.parse_mutmut_report_xml(50, file_name)_x000D_
-assert exit_mock.called_x000D_
-line = self.get_log_data(1)_x000D_
-self.assertTrue("mutmut.xml report file path cound not be found" in line)_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def test_validate_return(self):_x000D_
-"""Function to test validate_return method"""_x000D_
-list_test = [[1, "test", True, "Guardrail , failed test."], [0, "test", False, "Guardrail task, passed test."]]_x000D_
-for i, _ in enumerate(list_test):_x000D_
-assert self.get_validate_return(list_test[i][0], list_test[i][1], list_test[i][2]).strip() \_x000D_
-== list_test[i][3]_x000D_
+    <t>/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_call_subprocess_error</t>
+  </si>
+  <si>
+    <t>/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_call_subprocess_noerror</t>
+  </si>
+  <si>
+    <t>/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_check_pass_fail_success</t>
+  </si>
+  <si>
+    <t>/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_check_report_dir</t>
+  </si>
+  <si>
+    <t>/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_file_exists_exit</t>
+  </si>
+  <si>
+    <t>/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_get_all_func_cnn</t>
+  </si>
+  <si>
+    <t>/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_get_index_cnn</t>
+  </si>
+  <si>
+    <t>/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_guardrail_coverage</t>
+  </si>
+  <si>
+    <t>/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_guardrail_coverage_fail</t>
+  </si>
+  <si>
+    <t>/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_guardrail_cyclomatic_complexity</t>
+  </si>
+  <si>
+    <t>/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_guardrail_deadcode</t>
+  </si>
+  <si>
+    <t>/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_guardrail_deadcode_fail</t>
+  </si>
+  <si>
+    <t>/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_guardrail_jscpd</t>
+  </si>
+  <si>
+    <t>/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_guardrail_jscpd_fail</t>
+  </si>
+  <si>
+    <t>/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_guardrail_lint</t>
+  </si>
+  <si>
+    <t>/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_guardrail_mutation</t>
+  </si>
+  <si>
+    <t>/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_guardrail_test</t>
+  </si>
+  <si>
+    <t>/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_guardrail_test_fail</t>
+  </si>
+  <si>
+    <t>/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_list_to_str_folders</t>
+  </si>
+  <si>
+    <t>/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_mov_cov_report</t>
+  </si>
+  <si>
+    <t>/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_orchestrate_guardrails</t>
+  </si>
+  <si>
+    <t>/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_parse_cyclo_report_xml</t>
+  </si>
+  <si>
+    <t>/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_parse_jscpd_report_json</t>
+  </si>
+  <si>
+    <t>/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_parse_mutmut_report_xml</t>
+  </si>
+  <si>
+    <t>/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_validate_return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_call_subprocess_error(self):
+"""Function to test call_subprocess_error method"""
+guardails_obj = self.get_guardrails_obj()
+try:
+guardails_obj.call_subprocess("lshrs")
+except KeyError:
+pass
+self.assertNotEqual(guardails_obj.call_subprocess("lshrs"), 0)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_call_subprocess_noerror(self):
+"""Function to test call_subprocess_noerror method"""
+guardails_obj = self.get_guardrails_obj()
+ret_val = guardails_obj.call_subprocess("dir")
+self.assertEqual(ret_val, 0)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_check_pass_fail_success(self):
+"""Function to test check_pass_fail_success method"""
+list_test = [[10, 100, 10, "Guardrail gating, passed mutation"],
+[10, 100, 1, "Guardrail gating, failed mutation"],
+[10, 0, 10, "Guardrail gating, failed: mutation test did not run"]]
+for i, _ in enumerate(list_test):
+self.assertTrue(list_test[i][3] in self.get_check_pass_fail_status(list_test[i][0],
+list_test[i][1], list_test[i][2]))
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_check_report_dir(self, mock_path_exists, mock_mkdir):
+"""Function to test check_report_dir method"""
+guardails_obj = self.get_guardrails_obj()
+mock_path_exists.return_value = True
+mock_mkdir.return_value = False
+guardails_obj.check_report_dir()
+self.assertTrue(mock_mkdir.called)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_file_exists_exit(self):  # pylint: disable=R0201
+"""Function to test file_exists_exit method"""
+with patch('sys.exit') as exit_mock:
+Guardails.file_exists("abc")
+assert exit_mock.called
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_get_all_func_cnn(self):
+"""Function to test get_all_func_cnn method"""
+file_name = self.get_file_name("test_resource", "CC.xml")
+guardails_obj = self.get_guardrails_obj()
+guardails_obj.get_index_cnn = Mock()
+guardails_obj.get_index_cnn.return_value = int(2)
+expec_data = {
+'get_file_names(...) at core_extractor.py:11': '3',
+'get_function_names(...) at core_extractor.py:28': '7'}
+root = ETree.parse(file_name).getroot()
+for functions in root.iter('measure'):
+if functions.attrib['type'] == "Function":
+assert expec_data == guardails_obj.get_all_func_cnn(functions)
+file_name = self.get_file_name("test_resource", "CC_test_Func.xml")
+root = ETree.parse(file_name).getroot()
+with patch('sys.exit') as exit_mock:
+for functions in root.iter('measure'):
+if functions.attrib['type'] == "Function":
+guardails_obj.get_all_func_cnn(functions)
+file_name = self.get_file_name("test_resource", "CC_test_func_empty.xml")
+root = ETree.parse(file_name).getroot()
+for functions in root.iter('measure'):
+if functions.attrib['type'] == "Function":
+guardails_obj.get_all_func_cnn(functions)
+assert exit_mock.called
+line = self.get_log_data(2)
+self.assertTrue(
+"Guardrail unable to find the tags item/value/name in the report " in line)
+line = self.get_log_data(1)
+self.assertTrue(
+"Guardrail unable to find the tags item/value/name in the report file " in line)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_get_index_cnn(self):
+"""Function to test get_index_cnn method"""
+file_name = self.get_file_name("test_resource", "CC.xml")
+guardails_obj = self.get_guardrails_obj()
+root = ETree.parse(file_name).getroot()
+for functions in root.iter('measure'):
+if functions.attrib['type'] == "Function":
+assert guardails_obj.get_index_cnn(functions) == 2
+file_name = self.get_file_name("test_resource", "CC_test_func_empty.xml")
+root = ETree.parse(file_name).getroot()
+with patch('sys.exit') as exit_mock:
+for functions in root.iter('measure'):
+if functions.attrib['type'] == "Function":
+guardails_obj.get_index_cnn(functions)
+assert exit_mock.called
+line = self.get_log_data(1)
+self.assertTrue("Guardrail unable to find the tag CCN in the report " in line)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_guardrail_coverage(self):
+"""Function to test guardrail_coverage method"""
+line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_coverage")
+print(line_2)
+self.assertTrue("Guardrail , passed Coverage threshold" in line_1)
+val = r'mypython -m coverage report --fail-under=85'
+self.assertTrue(str(val) in line_2)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_guardrail_coverage_fail(self):
+"""Function to test guardrail_coverage_fail method"""
+line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_coverage")
+print(line_2)
+self.assertTrue("Guardrail , failed Coverage threshold" in line_1)
+val = r'mypython -m coverage report --fail-under=85'
+self.assertTrue(str(val) in line_2)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_guardrail_cyclomatic_complexity(self, mock_subproc_call):
+"""Function to test guardrail_cyclomatic_complexity method"""
+guardails_obj = self.get_guardrails_obj()
+guardails_obj.parse_cyclo_report_xml = Mock()
+guardails_obj.parse_cyclo_report_xml.return_value = {
+'get_file_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'
+'\\functiondefextractor\\core_extractor.py:11': '3',
+'get_function_names(...) at C:\\Projects\\PythonRepo\\python_sample\\FunctionDefExtractor'
+'\\functiondefextractor\\core_extractor.py:28': '7'}
+mock_subproc_call.return_value = False
+guardails_obj.guardrail_cyclomatic_complexity()
+self.assertTrue(mock_subproc_call.called)
+line = self.get_log_data(1)
+self.assertTrue("Guardrail , passed Cyclomatic complexity" in line)
+mock_subproc_call.return_value = True
+with patch('sys.exit') as exit_mock:
+guardails_obj.guardrail_cyclomatic_complexity()
+line = self.get_log_data(2)
+self.assertTrue("Guardrail task, failed Cyclomating complexity generation" in line)
+assert exit_mock
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_guardrail_deadcode(self):
+"""Function to test guardrail_deadcode method"""
+import os
+line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_deadcode")
+self.assertTrue("Guardrail , passed Dead code detection" in line_1)
+val = r'mypython -m vulture functiondefextractor ' \
+r'test  --exclude PythonRepo' \
+r'test --min-confidence 100 &gt;PythonRepo' \
+r'\REPORT\deadcode.txt'
+self.assertTrue(val.replace("\\", os.sep) in line_2.replace('\\', os.sep).replace("/", os.sep))
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_guardrail_deadcode_fail(self):
+"""Function to test guardrail_deadcode_fail method"""
+import os
+line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_deadcode")
+self.assertTrue("Guardrail , failed Dead code detection" in line_1)
+val = r'mypython -m vulture FunctionDefExtractor' \
+r'test  --exclude' \
+r'test --min-confidence 100 &gt;C:\Projects' \
+r'deadcode.txt'
+self.assertTrue(val.replace('\\', os.sep) in line_2.replace('\\', os.sep).replace("/", os.sep))
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_guardrail_jscpd(self):
+"""Function to test guardrail_jscpd method"""
+line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_jscpd")
+self.assertTrue("Guardrail task, passed Copy Paste Detection report generation" in line_1)
+val = r'command for sub process:jscpd --min-tokens 20  --ignore test  --max-lines 100000 --max-size 100mb --reporters "json,html"' \
+r' --mode "strict" --format "python, java" -o'
+self.assertTrue(str(val) in line_2)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_guardrail_jscpd_fail(self):
+"""Function to test guardrail_jscpd_fail method"""
+line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_jscpd")
+self.assertTrue("Guardrail task, failed Copy Paste Detection report generation" in line_1)
+val = r'command for sub process:jscpd --min-tokens 20  --ignore python_sample' \
+r'test  --max-lines 100000 --max-size 100mb --reporters "json,html" --mode ' \
+r'"strict" --format "python, java" -o'
+self.assertTrue(str(val) in line_2)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_guardrail_lint(self, mock_subproc_call):
+"""Function to test guardrail_lint method"""
+import os
+guardails_obj = self.get_guardrails_obj()
+global_obj = GuardrailGlobals()
+mock_subproc_call.return_value = False
+guardails_obj.lint_ignore = self.get_file_name("test_resource", "pylint_ignore.txt")
+guardails_obj.generate_files_lint = MagicMock(return_value=" ")
+global_obj.report_folder = os.getcwd()
+guardails_obj.guardrail_lint()
+self.assertTrue(mock_subproc_call.called)
+line = self.get_log_data(1)
+self.assertTrue("Guardrail , passed Linting." in str(line))
+mock_subproc_call.return_value = True
+with patch('sys.exit') as exit_mock:
+guardails_obj.guardrail_lint()
+line = self.get_log_data(1)
+self.assertTrue("Guardrail , failed Linting." in str(line))
+assert exit_mock
+self.assertTrue(mock_subproc_call.called)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_guardrail_mutation(self, mock_subproc_call):
+"""Function to test guardrail_mutation method"""
+guardails_obj = self.get_guardrails_obj()
+guardails_obj.parse_mutmut_report_xml = Mock()
+guardails_obj.parse_mutmut_report_xml.return_value = None
+mock_subproc_call.return_value = False
+guardails_obj.guardrail_mutation()
+self.assertTrue(mock_subproc_call.called)
+line = self.get_log_data(1)
+self.assertTrue("Guardrail task, passed Mutation testing report generation." in line)
+mock_subproc_call.return_value = True
+with patch('sys.exit') as exit_mock:
+guardails_obj.guardrail_mutation()
+line = self.get_log_data(1)
+self.assertTrue("Guardrail task, failed Mutation testing " in line)
+assert exit_mock
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_guardrail_test(self):
+"""Function to test guardrail_test method"""
+line_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_test")
+self.assertTrue("Guardrail task, passed Test execution and coverage generation" in line_1)
+val = r'mypython -m pytest FunctionDefExtractor' \
+r' --cov-config=.coveragerc ' \
+r'--cov-report "html" --cov=python_sample' \
+r'\FunctionDefExtractor\functiondefextractor'
+self.assertTrue(str(val) in line_2)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_guardrail_test_fail(self):
+"""Function to test guardrail_test_fail method"""
+line_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_test")
+self.assertTrue("Guardrail task, failed Test execution and coverage generation" in line_1)
+val = r'mypython -m pytest FunctionDefExtractor ' \
+r'--cov-config=.coveragerc ' \
+r'--cov-report "html" --cov=python_sample' \
+r'functiondefextractor'
+self.assertTrue(str(val) in line_2)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_list_to_str_folders(self):
+"""Function to test list_to_str_folders method"""
+guardails_obj = self.get_guardrails_obj()
+self.stub_globals(guardails_obj)
+self.assertEqual(guardails_obj.list_to_str_folders(), "abc test")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_mov_cov_report(self, mock_subproc_call, mock_shut_rmtr, mock_shut_mov):
+"""Function to test mov_cov_report method"""
+guardails_obj = self.get_guardrails_obj()
+process_sub_mock = mock.Mock()
+patcher_exist = mock.patch('os.path.exists')
+mock_thing = patcher_exist.start()
+mock_thing.return_value = True
+patcher_isdir = mock.patch('os.path.isdir')
+mock_thing_isdir = patcher_isdir.start()
+mock_thing_isdir.return_value = True
+mock_subproc_call.return_value = process_sub_mock
+mock_shut_rmtr.return_value = process_sub_mock
+mock_shut_mov.return_value = process_sub_mock
+guardails_obj.validate_return = self.stub_validate_return
+guardails_obj.mov_cov_report()
+self.assertTrue(mock_subproc_call.called)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_orchestrate_guardrails(self):
+"""Function to test orchestrate_guardrails method"""
+guardails_obj = self.get_guardrails_obj()
+guardails_obj.check_report_dir = Mock()
+guardails_obj.mov_cov_report = Mock()
+guardails_obj.mov_cov_report.return_value = True
+self.assertTrue(guardails_obj.mov_cov_report.return_value)
+guardails_obj.guardrail_lint = Mock()
+guardails_obj.guardrail_lint.return_value = True
+self.assertTrue(guardails_obj.guardrail_lint.return_value)
+guardails_obj.guardrail_jscpd = Mock()
+guardails_obj.guardrail_jscpd.return_value = True
+self.assertTrue(guardails_obj.guardrail_jscpd.return_value)
+guardails_obj.guardrail_test = Mock()
+guardails_obj.guardrail_test.return_value = True
+self.assertTrue(guardails_obj.guardrail_test.return_value)
+guardails_obj.guardrail_coverage = Mock()
+guardails_obj.guardrail_coverage.return_value = True
+self.assertTrue(guardails_obj.guardrail_coverage.return_value)
+guardails_obj.guardrail_mutation = Mock()
+guardails_obj.guardrail_mutation.return_value = True
+self.assertTrue(guardails_obj.guardrail_mutation.return_value)
+guardails_obj.guardrail_deadcode = Mock()
+guardails_obj.guardrail_deadcode.return_value = True
+self.assertTrue(guardails_obj.guardrail_deadcode.return_value)
+guardails_obj.guardrail_cyclomatic_complexity = Mock()
+guardails_obj.guardrail_cyclomatic_complexity.return_value = True
+self.assertTrue(guardails_obj.guardrail_cyclomatic_complexity.return_value)
+guardails_obj.orchestrate_guardrails()
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_parse_cyclo_report_xml(self):
+"""Function to test parse_cyclo_report_xml method"""
+file_name = self.get_file_name("test_resource", "CC.xml")
+guardails_obj = self.get_guardrails_obj()
+guardails_obj.get_all_func_cnn = Mock()
+guardails_obj.get_all_func_cnn.return_value = self.stub_get_all_func_cnn
+assert guardails_obj.parse_cyclo_report_xml(file_name)
+file_name = self.get_file_name("test_resourc", "CC.xml")
+with patch('sys.exit') as exit_mock:
+guardails_obj.parse_cyclo_report_xml(file_name)
+line = self.get_log_data(1)
+self.assertTrue("cc.xml report file path" in line)
+file_name = self.get_file_name("test_resource", "CC_test.xml")
+guardails_obj.parse_cyclo_report_xml(file_name)
+file_name = self.get_file_name("test_resource", "CC_test_None.xml")
+guardails_obj.parse_cyclo_report_xml(file_name)
+line = self.get_log_data(1)
+self.assertTrue("tags required are not found in cc.xml report file path" in line)
+assert exit_mock.called
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_parse_jscpd_report_json(self):
+"""Function to test parse_jscpd_report_json method"""
+guardails_obj = self.get_guardrails_obj()
+file_name = self.get_file_name("test_resource", "jscpd-report.json")
+guardails_obj.parse_jscpd_report_json(5, file_name)
+with patch('sys.exit') as exit_mock:
+guardails_obj.parse_jscpd_report_json(0, file_name)
+file_name = self.get_file_name("test_resource", "jscpd-report_test.json")
+guardails_obj.parse_jscpd_report_json(0, file_name)
+file_name = self.get_file_name("test_resource", "jscpd-report_test _error.json")
+guardails_obj.parse_jscpd_report_json(0, file_name)
+assert exit_mock.called
+line = self.get_log_data(3)
+self.assertTrue("Guardrail gating, failed jscpd." in line)
+line = self.get_log_data(4)
+self.assertTrue("Guardrail gating passed jscpd" in line)
+line = self.get_log_data(2)
+self.assertTrue("jscpd report not correctly generated" in line)
+line = self.get_log_data(1)
+self.assertTrue("jscpd report not generated" in line)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_parse_mutmut_report_xml(self):
+"""Function to test parse_mutmut_report_xml method"""
+file_name = self.get_file_name("test_resource", "mutmut.xml")
+guardails_obj = self.get_guardrails_obj()
+guardails_obj.parse_mutmut_report_xml(50, file_name)
+line = self.get_log_data(1)
+self.assertTrue("Guardrail gating, passed mutation" in str(line))
+file_name = self.get_file_name("test_resourc", "mutmut.xml")
+with patch('sys.exit') as exit_mock:
+guardails_obj.parse_mutmut_report_xml(50, file_name)
+assert exit_mock.called
+line = self.get_log_data(1)
+self.assertTrue("mutmut.xml report file path cound not be found" in line)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def test_validate_return(self):
+"""Function to test validate_return method"""
+list_test = [[1, "test", True, "Guardrail , failed test."], [0, "test", False, "Guardrail task, passed test."]]
+for i, _ in enumerate(list_test):
+assert self.get_validate_return(list_test[i][0], list_test[i][1], list_test[i][2]).strip() \
+== list_test[i][3]
 </t>
   </si>
 </sst>

--- a/test_resource/codeextractor_T_T.xlsx
+++ b/test_resource/codeextractor_T_T.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="expeccodeextractor_T_T" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>Uniq ID</t>
   </si>
@@ -22,79 +22,97 @@
     <t>Code</t>
   </si>
   <si>
-    <t>C:\Users\320074769\Downloads\My_Repos\Python_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_list_to_str_folders</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\My_Repos\Python_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_file_exists_exit</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\My_Repos\Python_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_call_subprocess_error</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\My_Repos\Python_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_call_subprocess_noerror</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\My_Repos\Python_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_check_report_dir</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\My_Repos\Python_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_validate_return</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\My_Repos\Python_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_check_pass_fail_success</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\My_Repos\Python_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_lint</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\My_Repos\Python_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_jscpd</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\My_Repos\Python_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_test</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\My_Repos\Python_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_coverage</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\My_Repos\Python_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_deadcode</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\My_Repos\Python_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_jscpd_fail</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\My_Repos\Python_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_test_fail</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\My_Repos\Python_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_coverage_fail</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\My_Repos\Python_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_deadcode_fail</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\My_Repos\Python_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_parse_jscpd_report_json</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\My_Repos\Python_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_parse_cyclo_report_xml</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\My_Repos\Python_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_get_all_func_cnn</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\My_Repos\Python_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_get_index_cnn</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\My_Repos\Python_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_parse_mutmut_report_xml</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\My_Repos\Python_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_mutation</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\My_Repos\Python_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_cyclomatic_complexity</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\My_Repos\Python_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_mov_cov_report</t>
-  </si>
-  <si>
-    <t>C:\Users\320074769\Downloads\My_Repos\Python_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_orchestrate_guardrails</t>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_list_to_str_folders</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_file_exists_exit</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_call_subprocess_error</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_call_subprocess_noerror</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_check_report_dir</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_validate_return</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_check_pass_fail_success</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_lint</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_jscpd</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_test</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_coverage</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_deadcode</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_jscpd_fail</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_test_fail</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_coverage_fail</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_deadcode_fail</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_parse_jscpd_report_json</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_parse_cyclo_report_xml</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_get_all_func_cnn</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_get_index_cnn</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_parse_mutmut_report_xml</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_mutation</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_guardrail_cyclomatic_complexity</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_mov_cov_report</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\src\test_guardrails.py_test_orchestrate_guardrails</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\test\TestHelloController.java_Test_AddMethod</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\tst\test.cs_Test_AddMethod</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\tst\test.cs_Test_SubstractMethod</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\tst\test.cs_Test_DivideMethod</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\tst\test.cs_Test_MultiplyMethod</t>
+  </si>
+  <si>
+    <t>C:\Users\320074769\Downloads\My_Repos\functiondefextractor\test_resource\test_repo\tst\TstHelloController.java_Test_AddMethod</t>
   </si>
   <si>
     <t xml:space="preserve">def test_list_to_str_folders(self):_x000D_
@@ -481,6 +499,54 @@
 guardails_obj.guardrail_cyclomatic_complexity.return_value = True_x000D_
 self.assertTrue(guardails_obj.guardrail_cyclomatic_complexity.return_value)_x000D_
 guardails_obj.orchestrate_guardrails()_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public void Test_AddMethod() {_x000D_
+BasicMaths bm = new BasicMaths()_x000D_
+double res = bm.Add(1, 10)_x000D_
+Assert.AreEqual(res, 5)_x000D_
+}_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public void Test_AddMethod() {_x000D_
+BasicMaths bm = new BasicMaths()_x000D_
+double res = bm.Add(10, 10)_x000D_
+Assert.AreEqual(res, 2)_x000D_
+}_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public void Test_AddMethod() {_x000D_
+BasicMaths bm = new BasicMaths()_x000D_
+double res = bm.Add(10, 10)_x000D_
+Assert.AreEqual(res, 20)_x000D_
+}_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public void Test_SubstractMethod() {_x000D_
+BasicMaths bm = new BasicMaths()_x000D_
+double res = bm.Substract(10, 10)_x000D_
+Assert.AreEqual(res, 0)_x000D_
+}_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public void Test_DivideMethod() {_x000D_
+BasicMaths bm = new BasicMaths()_x000D_
+double res = bm.divide(10, 5)_x000D_
+Assert.AreEqual(res, 2)_x000D_
+}_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public void Test_MultiplyMethod() {_x000D_
+BasicMaths bm = new BasicMaths()_x000D_
+double res = bm.Multiply(10, 10)_x000D_
+Assert.AreEqual(res, 100)_x000D_
+}_x000D_
 </t>
   </si>
 </sst>
@@ -839,7 +905,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -861,7 +927,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -872,7 +938,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -883,7 +949,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -894,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -905,7 +971,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -916,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -927,7 +993,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -938,7 +1004,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -949,7 +1015,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -960,7 +1026,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -971,7 +1037,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -982,7 +1048,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -993,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1004,7 +1070,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1015,7 +1081,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1026,7 +1092,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1037,7 +1103,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1048,7 +1114,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1059,7 +1125,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1070,7 +1136,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1081,7 +1147,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1092,7 +1158,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1103,7 +1169,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1114,7 +1180,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1125,7 +1191,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1136,7 +1202,95 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
